--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246002.482161859</v>
+        <v>240594.4482444022</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4937883.455360014</v>
+        <v>4937883.455360012</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3968043950655851</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="D2" t="n">
-        <v>18.21830727030009</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="E2" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="F2" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.089093774433809</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.888458418784959</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.504190801070987</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.54249424260933</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5891238419305783</v>
+        <v>0.5891238419305925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04668504368034</v>
+        <v>9.728415476776989</v>
       </c>
       <c r="D5" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="E5" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="F5" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.089093774433805</v>
+        <v>4.08909377443383</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
     </row>
     <row r="7">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.5891238419305923</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5891238419305923</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>6.419187452004435</v>
       </c>
       <c r="D8" t="n">
-        <v>2.84715937202123</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="D9" t="n">
-        <v>23.86249467691515</v>
+        <v>17.31716204183245</v>
       </c>
       <c r="E9" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="G9" t="n">
-        <v>7.307209712256317</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.00995232957613</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>3.700923269594416</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.479784596074286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3.479784596074287</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9495571182815</v>
+        <v>356.1591226304203</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>356.1591226304203</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>356.1591226304203</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.0472228673483</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6577323455255</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>70.34324565212823</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
         <v>92.70937201392488</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8705171454119</v>
+        <v>149.5588484077475</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.80373281388091</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.3304345571177</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>167.3191552801029</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>203.9522123139286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.4987350892473</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6577323455255</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>313.7049552128741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>116.3308444476703</v>
+        <v>104.3381375052332</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.35328005752564</v>
       </c>
       <c r="H15" t="n">
-        <v>45.50277650041806</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8705171454119</v>
       </c>
       <c r="V15" t="n">
-        <v>120.2258667594761</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>138.2959597602405</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>112.113071417257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>11.53522142148293</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9572800977121</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.3304345571177</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3478520195534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>177.0218028456502</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="F17" t="n">
-        <v>356.1591226304204</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="G17" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>280.3435399083971</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.95740580746545</v>
       </c>
       <c r="T17" t="n">
         <v>212.4987350892473</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>30.24881431616126</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>31.93843654484613</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>127.5582168056806</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8705171454119</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -1988,7 +1988,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>138.2959597602405</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>19.9656376567794</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.92099918154964</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>238.18371467664</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>114.2770653637838</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>242.7475494054083</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="E20" t="n">
-        <v>103.4508220290343</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="F20" t="n">
-        <v>356.1591226304204</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="G20" t="n">
-        <v>356.1591226304204</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.95740580746546</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4987350892473</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.32137354132345</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>137.3979883958439</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.8705171454119</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>194.556163395115</v>
+        <v>182.7733980447139</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>12.42602306444491</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>105.8175140250959</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.36839707813331</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>57.51006443325353</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F24" t="n">
-        <v>92.70937201392488</v>
+        <v>92.70937201392523</v>
       </c>
       <c r="G24" t="n">
         <v>91.89163974602977</v>
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>77.77409969606306</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.6259764018086</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>255.8657360053311</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>147.7037976717635</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -2620,10 +2620,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2693,13 +2693,13 @@
         <v>182.8401460722872</v>
       </c>
       <c r="V27" t="n">
-        <v>202.9234074721269</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W27" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X27" t="n">
-        <v>161.8425727710037</v>
+        <v>161.8425727710042</v>
       </c>
       <c r="Y27" t="n">
         <v>138.2959597602405</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.18192993894015</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>78.17596991908933</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -2806,10 +2806,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>358.7571207170723</v>
       </c>
       <c r="H29" t="n">
-        <v>96.5637546739502</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E30" t="n">
-        <v>103.6549143897921</v>
+        <v>103.6549143897926</v>
       </c>
       <c r="F30" t="n">
         <v>92.70937201392488</v>
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570837</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.50834088925764</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.69062406119429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>318.9177343860142</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>113.2454667682251</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H33" t="n">
-        <v>41.04430296570837</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>121.753056670549</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>186.4156149242413</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>154.2927467381475</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>223.1291178316542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974603014</v>
       </c>
       <c r="H36" t="n">
         <v>41.04430296570798</v>
@@ -3398,7 +3398,7 @@
         <v>57.82042628441737</v>
       </c>
       <c r="T36" t="n">
-        <v>135.5372539824027</v>
+        <v>135.5372539824022</v>
       </c>
       <c r="U36" t="n">
         <v>182.8401460722872</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>68.11736603739391</v>
       </c>
       <c r="U37" t="n">
-        <v>47.18192993894021</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>384.413453169913</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>116.9559306824989</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.82042628441737</v>
+        <v>57.8204262844178</v>
       </c>
       <c r="T39" t="n">
         <v>135.5372539824022</v>
       </c>
       <c r="U39" t="n">
-        <v>182.8401460722881</v>
+        <v>182.8401460722872</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>169.7775958326056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>34.73120273434505</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>139.263822895245</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>179.8118146109443</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>51.29628209397735</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3805,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E42" t="n">
-        <v>103.6549143897921</v>
+        <v>103.6549143897926</v>
       </c>
       <c r="F42" t="n">
         <v>92.70937201392488</v>
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570837</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.5707734986121</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>95.89525223782286</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>87.73196897711644</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>60.50774186893281</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>57.82042628441737</v>
+        <v>57.8204262844178</v>
       </c>
       <c r="T45" t="n">
         <v>135.5372539824022</v>
@@ -4121,7 +4121,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710042</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
         <v>138.2959597602405</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I46" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>83.18947263105649</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>178.3735068695322</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.06526883007437</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="C2" t="n">
-        <v>56.66445630980611</v>
+        <v>54.47089850513974</v>
       </c>
       <c r="D2" t="n">
-        <v>38.26212573374541</v>
+        <v>38.26212573374546</v>
       </c>
       <c r="E2" t="n">
-        <v>19.8597951576847</v>
+        <v>19.85979515768473</v>
       </c>
       <c r="F2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992257</v>
+        <v>5.219099475992273</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088178</v>
+        <v>15.88227649088182</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886387</v>
+        <v>32.89339907886392</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646096</v>
+        <v>50.92952327646101</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927294</v>
+        <v>65.79354395927302</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="R2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="S2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="T2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="U2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="V2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="W2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="X2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.66445630980611</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="C3" t="n">
-        <v>56.66445630980611</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="D3" t="n">
-        <v>38.26212573374541</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="E3" t="n">
-        <v>19.8597951576847</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="F3" t="n">
-        <v>1.457464581624007</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="G3" t="n">
-        <v>1.457464581624007</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="H3" t="n">
-        <v>1.457464581624007</v>
+        <v>16.94349881803164</v>
       </c>
       <c r="I3" t="n">
-        <v>1.457464581624007</v>
+        <v>6.395301368275483</v>
       </c>
       <c r="J3" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K3" t="n">
-        <v>5.886021080118639</v>
+        <v>5.886021080118655</v>
       </c>
       <c r="L3" t="n">
-        <v>10.63528474396711</v>
+        <v>19.36817474787379</v>
       </c>
       <c r="M3" t="n">
-        <v>28.6714089415642</v>
+        <v>37.40429894547091</v>
       </c>
       <c r="N3" t="n">
-        <v>46.70753313916128</v>
+        <v>55.44042314306803</v>
       </c>
       <c r="O3" t="n">
-        <v>62.9659996217394</v>
+        <v>62.96599962173948</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.35384443365392</v>
+        <v>71.35384443365402</v>
       </c>
       <c r="R3" t="n">
-        <v>71.35384443365392</v>
+        <v>57.87855772210643</v>
       </c>
       <c r="S3" t="n">
-        <v>71.35384443365392</v>
+        <v>39.4762271460457</v>
       </c>
       <c r="T3" t="n">
-        <v>71.35384443365392</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="U3" t="n">
-        <v>71.35384443365392</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="V3" t="n">
-        <v>71.35384443365392</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="W3" t="n">
-        <v>71.35384443365392</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="X3" t="n">
-        <v>56.66445630980611</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="Y3" t="n">
-        <v>56.66445630980611</v>
+        <v>21.07389656998498</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="C4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="D4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="E4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="F4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="G4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="H4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="I4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="J4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="K4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="L4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="M4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="O4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="P4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="R4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="S4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="T4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="U4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="V4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="W4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="X4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.052539169432672</v>
+        <v>2.052539169432689</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.87322908120045</v>
+        <v>48.08880803352021</v>
       </c>
       <c r="C5" t="n">
-        <v>56.66445630980617</v>
+        <v>38.26212573374547</v>
       </c>
       <c r="D5" t="n">
-        <v>38.26212573374545</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="E5" t="n">
-        <v>19.85979515768473</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="F5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="G5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="J5" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992243</v>
+        <v>5.219099475992294</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088179</v>
+        <v>15.88227649088184</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886389</v>
+        <v>32.89339907886394</v>
       </c>
       <c r="N5" t="n">
-        <v>50.929523276461</v>
+        <v>50.92952327646104</v>
       </c>
       <c r="O5" t="n">
-        <v>65.79354395927301</v>
+        <v>65.79354395927305</v>
       </c>
       <c r="P5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="R5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="S5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="T5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="U5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="V5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="W5" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="X5" t="n">
-        <v>72.87322908120045</v>
+        <v>65.19363428935181</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.87322908120045</v>
+        <v>63.89676828464619</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>16.94349881803164</v>
       </c>
       <c r="I6" t="n">
-        <v>6.395301368275483</v>
+        <v>6.395301368275484</v>
       </c>
       <c r="J6" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118655</v>
+        <v>5.886021080118656</v>
       </c>
       <c r="L6" t="n">
         <v>19.36817474787379</v>
@@ -4658,40 +4658,40 @@
         <v>37.40429894547091</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916133</v>
+        <v>55.44042314306803</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173946</v>
+        <v>71.69888962564616</v>
       </c>
       <c r="P6" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.353844433654</v>
+        <v>71.35384443365405</v>
       </c>
       <c r="R6" t="n">
-        <v>57.87855772210641</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="S6" t="n">
-        <v>57.87855772210641</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="T6" t="n">
-        <v>57.87855772210641</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="U6" t="n">
-        <v>57.87855772210641</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="V6" t="n">
-        <v>57.87855772210641</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="W6" t="n">
-        <v>57.87855772210641</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="X6" t="n">
-        <v>39.47622714604569</v>
+        <v>39.47622714604573</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.07389656998497</v>
+        <v>21.073896569985</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="C7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="D7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="E7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="F7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="G7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="H7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="I7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="J7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="K7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="L7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="M7" t="n">
-        <v>1.457464581624009</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="O7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="P7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="R7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="S7" t="n">
-        <v>2.052539169432688</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="T7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="U7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="V7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="W7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="X7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.457464581624009</v>
+        <v>2.052539169432689</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.66555765998032</v>
+        <v>70.66555765998037</v>
       </c>
       <c r="C8" t="n">
-        <v>47.80523171368451</v>
+        <v>64.18152993068296</v>
       </c>
       <c r="D8" t="n">
         <v>44.9293131560873</v>
@@ -4792,22 +4792,22 @@
         <v>22.99277734434891</v>
       </c>
       <c r="F8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="G8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J8" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172385</v>
+        <v>8.629045391172383</v>
       </c>
       <c r="L8" t="n">
         <v>22.96239275619891</v>
@@ -4819,37 +4819,37 @@
         <v>66.24326259831412</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944871</v>
+        <v>85.02587025944875</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="R8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="T8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="U8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="V8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="W8" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="X8" t="n">
-        <v>87.77038391581192</v>
+        <v>87.77038391581196</v>
       </c>
       <c r="Y8" t="n">
-        <v>86.47351791110631</v>
+        <v>86.47351791110636</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="C9" t="n">
-        <v>95.44997870766061</v>
+        <v>71.34644873097866</v>
       </c>
       <c r="D9" t="n">
-        <v>71.34644873097864</v>
+        <v>53.85436586044084</v>
       </c>
       <c r="E9" t="n">
-        <v>47.24291875429667</v>
+        <v>29.75083588375885</v>
       </c>
       <c r="F9" t="n">
-        <v>23.13938877761469</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="G9" t="n">
-        <v>15.75836886624468</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="H9" t="n">
-        <v>15.75836886624468</v>
+        <v>5.647305907076865</v>
       </c>
       <c r="I9" t="n">
         <v>5.647305907076865</v>
       </c>
       <c r="J9" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K9" t="n">
         <v>8.346945923252326</v>
@@ -4892,43 +4892,43 @@
         <v>24.53097221925459</v>
       </c>
       <c r="M9" t="n">
-        <v>40.32352555030945</v>
+        <v>46.56245863347765</v>
       </c>
       <c r="N9" t="n">
-        <v>63.94739528045545</v>
+        <v>63.84811268230267</v>
       </c>
       <c r="O9" t="n">
-        <v>83.1665421885365</v>
+        <v>83.06725959038371</v>
       </c>
       <c r="P9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.35069610950782</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="V9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="W9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="X9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.44997870766061</v>
+        <v>95.44997870766065</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="C10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="D10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="E10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="F10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="G10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="H10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="I10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="J10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="K10" t="n">
-        <v>1.908999574153212</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="L10" t="n">
-        <v>2.295468180757768</v>
+        <v>2.295468180757769</v>
       </c>
       <c r="M10" t="n">
-        <v>3.232416129329198</v>
+        <v>3.232416129329199</v>
       </c>
       <c r="N10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="O10" t="n">
-        <v>5.423933509581785</v>
+        <v>5.423933509581786</v>
       </c>
       <c r="P10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="R10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="S10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="T10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="U10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="V10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="W10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="X10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.423933509581785</v>
+        <v>1.908999574153213</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>347.6336965965766</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="C11" t="n">
-        <v>347.6336965965766</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="D11" t="n">
-        <v>347.6336965965766</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="E11" t="n">
-        <v>28.49272981043363</v>
+        <v>748.0061088617878</v>
       </c>
       <c r="F11" t="n">
-        <v>28.49272981043363</v>
+        <v>388.2494193361107</v>
       </c>
       <c r="G11" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H11" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I11" t="n">
-        <v>48.5007520705837</v>
+        <v>48.50075207058381</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7198809006294</v>
+        <v>138.7198809006295</v>
       </c>
       <c r="K11" t="n">
-        <v>282.1799773353231</v>
+        <v>282.1799773353232</v>
       </c>
       <c r="L11" t="n">
-        <v>466.1514488739584</v>
+        <v>466.1514488739583</v>
       </c>
       <c r="M11" t="n">
-        <v>676.0014420529621</v>
+        <v>676.001442052962</v>
       </c>
       <c r="N11" t="n">
-        <v>889.9967713745759</v>
+        <v>889.9967713745757</v>
       </c>
       <c r="O11" t="n">
-        <v>1089.899512707153</v>
+        <v>1089.899512707152</v>
       </c>
       <c r="P11" t="n">
         <v>1254.905464881551</v>
@@ -5065,28 +5065,28 @@
         <v>1370.989991801075</v>
       </c>
       <c r="R11" t="n">
-        <v>1424.636490521682</v>
+        <v>1424.636490521681</v>
       </c>
       <c r="S11" t="n">
-        <v>1424.636490521682</v>
+        <v>1366.002932069814</v>
       </c>
       <c r="T11" t="n">
-        <v>1424.636490521682</v>
+        <v>1366.002932069814</v>
       </c>
       <c r="U11" t="n">
-        <v>1424.636490521682</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="V11" t="n">
-        <v>1067.147075647931</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="W11" t="n">
-        <v>1067.147075647931</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="X11" t="n">
-        <v>707.3903861222539</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="Y11" t="n">
-        <v>347.6336965965766</v>
+        <v>1107.762798387465</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>297.0323020992427</v>
+        <v>330.6804523393072</v>
       </c>
       <c r="C12" t="n">
-        <v>297.0323020992427</v>
+        <v>330.6804523393072</v>
       </c>
       <c r="D12" t="n">
-        <v>193.1923436145277</v>
+        <v>226.8404938545922</v>
       </c>
       <c r="E12" t="n">
         <v>122.1385601275295</v>
       </c>
       <c r="F12" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G12" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H12" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I12" t="n">
-        <v>38.38549923390318</v>
+        <v>38.38549923390316</v>
       </c>
       <c r="J12" t="n">
-        <v>89.06149417165989</v>
+        <v>89.06149417165983</v>
       </c>
       <c r="K12" t="n">
-        <v>188.3750000918039</v>
+        <v>188.3750000918038</v>
       </c>
       <c r="L12" t="n">
-        <v>329.4416777870125</v>
+        <v>329.4416777870123</v>
       </c>
       <c r="M12" t="n">
-        <v>497.2053280499811</v>
+        <v>497.2053280499808</v>
       </c>
       <c r="N12" t="n">
-        <v>671.7505877378982</v>
+        <v>671.7505877378978</v>
       </c>
       <c r="O12" t="n">
-        <v>827.8146834481759</v>
+        <v>827.8146834481754</v>
       </c>
       <c r="P12" t="n">
-        <v>949.9282558448607</v>
+        <v>949.9282558448602</v>
       </c>
       <c r="Q12" t="n">
-        <v>1023.446075688191</v>
+        <v>1023.44607568819</v>
       </c>
       <c r="R12" t="n">
         <v>1046.721858446371</v>
@@ -5153,19 +5153,19 @@
         <v>1046.721858446371</v>
       </c>
       <c r="U12" t="n">
-        <v>862.0041643600964</v>
+        <v>895.6523146001609</v>
       </c>
       <c r="V12" t="n">
-        <v>657.0310254993626</v>
+        <v>690.6791757394271</v>
       </c>
       <c r="W12" t="n">
-        <v>460.5096483325798</v>
+        <v>494.1577985726443</v>
       </c>
       <c r="X12" t="n">
-        <v>297.0323020992427</v>
+        <v>330.6804523393072</v>
       </c>
       <c r="Y12" t="n">
-        <v>297.0323020992427</v>
+        <v>330.6804523393072</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.49272981043363</v>
+        <v>93.95104578405071</v>
       </c>
       <c r="C13" t="n">
-        <v>28.49272981043363</v>
+        <v>93.95104578405071</v>
       </c>
       <c r="D13" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="E13" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="F13" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G13" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H13" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I13" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="J13" t="n">
-        <v>52.6562753168577</v>
+        <v>52.65627531685767</v>
       </c>
       <c r="K13" t="n">
-        <v>105.1827995716692</v>
+        <v>105.1827995716691</v>
       </c>
       <c r="L13" t="n">
-        <v>177.2583584950848</v>
+        <v>177.2583584950847</v>
       </c>
       <c r="M13" t="n">
-        <v>253.7814006305692</v>
+        <v>253.781400630569</v>
       </c>
       <c r="N13" t="n">
-        <v>329.7617438211973</v>
+        <v>329.7617438211971</v>
       </c>
       <c r="O13" t="n">
-        <v>396.6410115835371</v>
+        <v>396.6410115835369</v>
       </c>
       <c r="P13" t="n">
-        <v>450.7702085953937</v>
+        <v>450.7702085953934</v>
       </c>
       <c r="Q13" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="R13" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="S13" t="n">
-        <v>479.2134449600844</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="T13" t="n">
-        <v>479.2134449600844</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="U13" t="n">
-        <v>479.2134449600844</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="V13" t="n">
-        <v>197.5019775681133</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="W13" t="n">
-        <v>28.49272981043363</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="X13" t="n">
-        <v>28.49272981043363</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.49272981043363</v>
+        <v>93.95104578405071</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>748.0061088617881</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="C14" t="n">
-        <v>748.0061088617881</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="D14" t="n">
-        <v>748.0061088617881</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="E14" t="n">
-        <v>388.2494193361109</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="F14" t="n">
-        <v>28.49272981043363</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="G14" t="n">
-        <v>28.49272981043363</v>
+        <v>234.5050654810686</v>
       </c>
       <c r="H14" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I14" t="n">
-        <v>48.50075207058377</v>
+        <v>48.50075207058381</v>
       </c>
       <c r="J14" t="n">
         <v>138.7198809006295</v>
       </c>
       <c r="K14" t="n">
-        <v>282.1799773353234</v>
+        <v>282.1799773353232</v>
       </c>
       <c r="L14" t="n">
-        <v>466.1514488739585</v>
+        <v>466.1514488739583</v>
       </c>
       <c r="M14" t="n">
-        <v>676.0014420529624</v>
+        <v>676.0014420529619</v>
       </c>
       <c r="N14" t="n">
-        <v>889.9967713745762</v>
+        <v>889.9967713745756</v>
       </c>
       <c r="O14" t="n">
-        <v>1089.899512707153</v>
+        <v>1089.899512707152</v>
       </c>
       <c r="P14" t="n">
-        <v>1254.905464881551</v>
+        <v>1254.90546488155</v>
       </c>
       <c r="Q14" t="n">
-        <v>1370.989991801075</v>
+        <v>1370.989991801074</v>
       </c>
       <c r="R14" t="n">
-        <v>1424.636490521682</v>
+        <v>1424.636490521681</v>
       </c>
       <c r="S14" t="n">
-        <v>1424.636490521682</v>
+        <v>1424.636490521681</v>
       </c>
       <c r="T14" t="n">
-        <v>1424.636490521682</v>
+        <v>1209.991303562845</v>
       </c>
       <c r="U14" t="n">
-        <v>1424.636490521682</v>
+        <v>951.7511698804961</v>
       </c>
       <c r="V14" t="n">
-        <v>1424.636490521682</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="W14" t="n">
-        <v>1064.879800996004</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="X14" t="n">
-        <v>1064.879800996004</v>
+        <v>594.2617550067456</v>
       </c>
       <c r="Y14" t="n">
-        <v>748.0061088617881</v>
+        <v>594.2617550067456</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>296.6629675254644</v>
+        <v>320.8167596858717</v>
       </c>
       <c r="C15" t="n">
-        <v>179.1570640429692</v>
+        <v>215.4247015997776</v>
       </c>
       <c r="D15" t="n">
-        <v>179.1570640429692</v>
+        <v>215.4247015997776</v>
       </c>
       <c r="E15" t="n">
-        <v>74.45513031590642</v>
+        <v>215.4247015997776</v>
       </c>
       <c r="F15" t="n">
-        <v>74.45513031590642</v>
+        <v>121.7788712826817</v>
       </c>
       <c r="G15" t="n">
-        <v>74.45513031590642</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H15" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I15" t="n">
-        <v>38.38549923390319</v>
+        <v>38.38549923390315</v>
       </c>
       <c r="J15" t="n">
-        <v>89.06149417165989</v>
+        <v>89.06149417165983</v>
       </c>
       <c r="K15" t="n">
-        <v>188.3750000918039</v>
+        <v>188.3750000918038</v>
       </c>
       <c r="L15" t="n">
-        <v>329.4416777870125</v>
+        <v>329.4416777870123</v>
       </c>
       <c r="M15" t="n">
-        <v>497.2053280499812</v>
+        <v>497.2053280499808</v>
       </c>
       <c r="N15" t="n">
-        <v>671.7505877378983</v>
+        <v>671.7505877378978</v>
       </c>
       <c r="O15" t="n">
-        <v>827.814683448176</v>
+        <v>827.8146834481754</v>
       </c>
       <c r="P15" t="n">
-        <v>949.9282558448608</v>
+        <v>949.9282558448602</v>
       </c>
       <c r="Q15" t="n">
-        <v>1023.446075688191</v>
+        <v>1023.44607568819</v>
       </c>
       <c r="R15" t="n">
         <v>1046.721858446371</v>
@@ -5390,19 +5390,19 @@
         <v>1046.721858446371</v>
       </c>
       <c r="U15" t="n">
-        <v>1046.721858446371</v>
+        <v>862.004164360096</v>
       </c>
       <c r="V15" t="n">
-        <v>925.2815889923547</v>
+        <v>657.0310254993622</v>
       </c>
       <c r="W15" t="n">
-        <v>728.7602118255719</v>
+        <v>460.5096483325793</v>
       </c>
       <c r="X15" t="n">
-        <v>565.2828655922348</v>
+        <v>460.5096483325793</v>
       </c>
       <c r="Y15" t="n">
-        <v>425.5899769455272</v>
+        <v>320.8167596858717</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="C16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="D16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9679182759865</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="F16" t="n">
-        <v>194.1061440505469</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G16" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H16" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I16" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="J16" t="n">
-        <v>52.65627531685772</v>
+        <v>52.65627531685767</v>
       </c>
       <c r="K16" t="n">
-        <v>105.1827995716692</v>
+        <v>105.1827995716691</v>
       </c>
       <c r="L16" t="n">
-        <v>177.2583584950849</v>
+        <v>177.2583584950847</v>
       </c>
       <c r="M16" t="n">
-        <v>253.7814006305692</v>
+        <v>253.781400630569</v>
       </c>
       <c r="N16" t="n">
-        <v>329.7617438211974</v>
+        <v>329.7617438211971</v>
       </c>
       <c r="O16" t="n">
-        <v>396.6410115835372</v>
+        <v>396.6410115835369</v>
       </c>
       <c r="P16" t="n">
-        <v>450.7702085953938</v>
+        <v>450.7702085953934</v>
       </c>
       <c r="Q16" t="n">
-        <v>479.2134449600845</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="R16" t="n">
-        <v>479.2134449600845</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="S16" t="n">
-        <v>479.2134449600845</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="T16" t="n">
-        <v>479.2134449600845</v>
+        <v>320.2938140943087</v>
       </c>
       <c r="U16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="V16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="W16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="X16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
       <c r="Y16" t="n">
-        <v>479.2134449600845</v>
+        <v>40.14446862001233</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1209.991303562846</v>
+        <v>748.0061088617877</v>
       </c>
       <c r="C17" t="n">
-        <v>1209.991303562846</v>
+        <v>748.0061088617877</v>
       </c>
       <c r="D17" t="n">
-        <v>1209.991303562846</v>
+        <v>748.0061088617877</v>
       </c>
       <c r="E17" t="n">
-        <v>1031.181401698553</v>
+        <v>388.2494193361106</v>
       </c>
       <c r="F17" t="n">
-        <v>671.4247121728756</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G17" t="n">
-        <v>311.6680226471984</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H17" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I17" t="n">
-        <v>48.50075207058353</v>
+        <v>48.50075207058374</v>
       </c>
       <c r="J17" t="n">
-        <v>138.7198809006293</v>
+        <v>138.7198809006294</v>
       </c>
       <c r="K17" t="n">
-        <v>282.1799773353231</v>
+        <v>282.1799773353232</v>
       </c>
       <c r="L17" t="n">
-        <v>466.1514488739584</v>
+        <v>466.1514488739583</v>
       </c>
       <c r="M17" t="n">
-        <v>676.0014420529621</v>
+        <v>676.0014420529619</v>
       </c>
       <c r="N17" t="n">
-        <v>889.9967713745757</v>
+        <v>889.9967713745756</v>
       </c>
       <c r="O17" t="n">
-        <v>1089.899512707153</v>
+        <v>1089.899512707152</v>
       </c>
       <c r="P17" t="n">
-        <v>1254.905464881551</v>
+        <v>1254.90546488155</v>
       </c>
       <c r="Q17" t="n">
-        <v>1370.989991801075</v>
+        <v>1370.989991801074</v>
       </c>
       <c r="R17" t="n">
-        <v>1424.636490521682</v>
+        <v>1424.636490521681</v>
       </c>
       <c r="S17" t="n">
-        <v>1424.636490521682</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="T17" t="n">
-        <v>1209.991303562846</v>
+        <v>1138.317156282577</v>
       </c>
       <c r="U17" t="n">
-        <v>1209.991303562846</v>
+        <v>1138.317156282577</v>
       </c>
       <c r="V17" t="n">
-        <v>1209.991303562846</v>
+        <v>1138.317156282577</v>
       </c>
       <c r="W17" t="n">
-        <v>1209.991303562846</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="X17" t="n">
-        <v>1209.991303562846</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="Y17" t="n">
-        <v>1209.991303562846</v>
+        <v>1107.762798387465</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>406.4073618857443</v>
+        <v>376.6074443520836</v>
       </c>
       <c r="C18" t="n">
-        <v>406.4073618857443</v>
+        <v>259.1015408695883</v>
       </c>
       <c r="D18" t="n">
-        <v>406.4073618857443</v>
+        <v>259.1015408695883</v>
       </c>
       <c r="E18" t="n">
-        <v>406.4073618857443</v>
+        <v>154.3996071425256</v>
       </c>
       <c r="F18" t="n">
-        <v>406.4073618857443</v>
+        <v>60.75377682542971</v>
       </c>
       <c r="G18" t="n">
-        <v>406.4073618857443</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H18" t="n">
-        <v>406.4073618857443</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I18" t="n">
-        <v>416.3001313092138</v>
+        <v>38.38549923390315</v>
       </c>
       <c r="J18" t="n">
-        <v>466.9761262469705</v>
+        <v>89.06149417165983</v>
       </c>
       <c r="K18" t="n">
-        <v>566.2896321671145</v>
+        <v>188.3750000918038</v>
       </c>
       <c r="L18" t="n">
-        <v>707.3563098623231</v>
+        <v>329.4416777870123</v>
       </c>
       <c r="M18" t="n">
-        <v>875.1199601252918</v>
+        <v>497.2053280499808</v>
       </c>
       <c r="N18" t="n">
-        <v>1049.665219813209</v>
+        <v>671.7505877378978</v>
       </c>
       <c r="O18" t="n">
-        <v>1205.729315523487</v>
+        <v>827.8146834481754</v>
       </c>
       <c r="P18" t="n">
-        <v>1327.842887920172</v>
+        <v>949.9282558448602</v>
       </c>
       <c r="Q18" t="n">
-        <v>1401.360707763502</v>
+        <v>1023.44607568819</v>
       </c>
       <c r="R18" t="n">
-        <v>1424.636490521682</v>
+        <v>1046.721858446371</v>
       </c>
       <c r="S18" t="n">
-        <v>1424.636490521682</v>
+        <v>1046.721858446371</v>
       </c>
       <c r="T18" t="n">
-        <v>1295.78980687958</v>
+        <v>1046.721858446371</v>
       </c>
       <c r="U18" t="n">
-        <v>1111.072112793305</v>
+        <v>1046.721858446371</v>
       </c>
       <c r="V18" t="n">
-        <v>906.0989739325718</v>
+        <v>841.7487195856368</v>
       </c>
       <c r="W18" t="n">
-        <v>709.5775967657889</v>
+        <v>645.2273424188539</v>
       </c>
       <c r="X18" t="n">
-        <v>546.1002505324518</v>
+        <v>645.2273424188539</v>
       </c>
       <c r="Y18" t="n">
-        <v>406.4073618857443</v>
+        <v>505.5344537721463</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>220.5218148002969</v>
+        <v>363.7820658047469</v>
       </c>
       <c r="C19" t="n">
-        <v>220.5218148002969</v>
+        <v>191.8095026836629</v>
       </c>
       <c r="D19" t="n">
-        <v>200.3545040358732</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="E19" t="n">
-        <v>200.3545040358732</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="F19" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G19" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H19" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I19" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="J19" t="n">
-        <v>52.6562753168577</v>
+        <v>52.65627531685767</v>
       </c>
       <c r="K19" t="n">
-        <v>105.1827995716692</v>
+        <v>105.1827995716691</v>
       </c>
       <c r="L19" t="n">
-        <v>177.2583584950848</v>
+        <v>177.2583584950847</v>
       </c>
       <c r="M19" t="n">
-        <v>253.7814006305692</v>
+        <v>253.781400630569</v>
       </c>
       <c r="N19" t="n">
-        <v>329.7617438211973</v>
+        <v>329.7617438211971</v>
       </c>
       <c r="O19" t="n">
-        <v>396.6410115835371</v>
+        <v>396.6410115835369</v>
       </c>
       <c r="P19" t="n">
-        <v>450.7702085953937</v>
+        <v>450.7702085953934</v>
       </c>
       <c r="Q19" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="R19" t="n">
-        <v>461.1114255847817</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="S19" t="n">
-        <v>461.1114255847817</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="T19" t="n">
-        <v>220.5218148002969</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="U19" t="n">
-        <v>220.5218148002969</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5218148002969</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="W19" t="n">
-        <v>220.5218148002969</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="X19" t="n">
-        <v>220.5218148002969</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.5218148002969</v>
+        <v>363.7820658047469</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>852.5018886890955</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="C20" t="n">
-        <v>852.5018886890955</v>
+        <v>1107.762798387465</v>
       </c>
       <c r="D20" t="n">
-        <v>852.5018886890955</v>
+        <v>748.0061088617877</v>
       </c>
       <c r="E20" t="n">
-        <v>748.0061088617881</v>
+        <v>388.2494193361106</v>
       </c>
       <c r="F20" t="n">
-        <v>388.2494193361109</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G20" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H20" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I20" t="n">
-        <v>48.50075207058376</v>
+        <v>48.5007520705837</v>
       </c>
       <c r="J20" t="n">
-        <v>138.7198809006295</v>
+        <v>138.7198809006294</v>
       </c>
       <c r="K20" t="n">
-        <v>282.1799773353232</v>
+        <v>282.179977335323</v>
       </c>
       <c r="L20" t="n">
-        <v>466.1514488739588</v>
+        <v>466.1514488739581</v>
       </c>
       <c r="M20" t="n">
-        <v>676.0014420529626</v>
+        <v>676.0014420529619</v>
       </c>
       <c r="N20" t="n">
-        <v>889.9967713745763</v>
+        <v>889.9967713745755</v>
       </c>
       <c r="O20" t="n">
-        <v>1089.899512707153</v>
+        <v>1089.899512707152</v>
       </c>
       <c r="P20" t="n">
-        <v>1254.905464881551</v>
+        <v>1254.90546488155</v>
       </c>
       <c r="Q20" t="n">
-        <v>1370.989991801075</v>
+        <v>1370.989991801074</v>
       </c>
       <c r="R20" t="n">
-        <v>1424.636490521682</v>
+        <v>1424.636490521681</v>
       </c>
       <c r="S20" t="n">
-        <v>1424.636490521682</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="T20" t="n">
-        <v>1209.991303562846</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="U20" t="n">
-        <v>1209.991303562846</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="V20" t="n">
-        <v>852.5018886890955</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="W20" t="n">
-        <v>852.5018886890955</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="X20" t="n">
-        <v>852.5018886890955</v>
+        <v>1352.962343241413</v>
       </c>
       <c r="Y20" t="n">
-        <v>852.5018886890955</v>
+        <v>1352.962343241413</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.1385601275295</v>
+        <v>343.4844220947397</v>
       </c>
       <c r="C21" t="n">
-        <v>122.1385601275295</v>
+        <v>225.9785186122444</v>
       </c>
       <c r="D21" t="n">
         <v>122.1385601275295</v>
@@ -5819,64 +5819,64 @@
         <v>122.1385601275295</v>
       </c>
       <c r="F21" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G21" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H21" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I21" t="n">
-        <v>38.38549923390318</v>
+        <v>38.38549923390315</v>
       </c>
       <c r="J21" t="n">
-        <v>89.06149417165989</v>
+        <v>89.0614941716598</v>
       </c>
       <c r="K21" t="n">
-        <v>188.3750000918039</v>
+        <v>188.3750000918038</v>
       </c>
       <c r="L21" t="n">
-        <v>329.4416777870125</v>
+        <v>329.4416777870123</v>
       </c>
       <c r="M21" t="n">
-        <v>497.2053280499811</v>
+        <v>497.2053280499808</v>
       </c>
       <c r="N21" t="n">
-        <v>671.7505877378982</v>
+        <v>671.7505877378977</v>
       </c>
       <c r="O21" t="n">
-        <v>827.8146834481759</v>
+        <v>827.8146834481753</v>
       </c>
       <c r="P21" t="n">
-        <v>949.9282558448607</v>
+        <v>949.9282558448601</v>
       </c>
       <c r="Q21" t="n">
-        <v>1023.446075688191</v>
+        <v>1023.44607568819</v>
       </c>
       <c r="R21" t="n">
-        <v>1046.721858446371</v>
+        <v>1046.72185844637</v>
       </c>
       <c r="S21" t="n">
-        <v>1046.721858446371</v>
+        <v>1046.72185844637</v>
       </c>
       <c r="T21" t="n">
-        <v>907.9360115818822</v>
+        <v>1046.72185844637</v>
       </c>
       <c r="U21" t="n">
-        <v>907.9360115818822</v>
+        <v>862.0041643600957</v>
       </c>
       <c r="V21" t="n">
-        <v>702.9628727211484</v>
+        <v>657.0310254993619</v>
       </c>
       <c r="W21" t="n">
-        <v>506.4414955543656</v>
+        <v>472.4114315148024</v>
       </c>
       <c r="X21" t="n">
-        <v>342.9641493210285</v>
+        <v>472.4114315148024</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.2712606743208</v>
+        <v>472.4114315148024</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.3270671569572</v>
+        <v>204.3610411325972</v>
       </c>
       <c r="C22" t="n">
-        <v>200.3545040358732</v>
+        <v>204.3610411325972</v>
       </c>
       <c r="D22" t="n">
-        <v>200.3545040358732</v>
+        <v>41.04426825936787</v>
       </c>
       <c r="E22" t="n">
-        <v>200.3545040358732</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="F22" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="G22" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="H22" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="I22" t="n">
-        <v>28.49272981043363</v>
+        <v>28.49272981043362</v>
       </c>
       <c r="J22" t="n">
-        <v>52.6562753168577</v>
+        <v>52.65627531685767</v>
       </c>
       <c r="K22" t="n">
-        <v>105.1827995716692</v>
+        <v>105.1827995716691</v>
       </c>
       <c r="L22" t="n">
-        <v>177.2583584950848</v>
+        <v>177.2583584950847</v>
       </c>
       <c r="M22" t="n">
-        <v>253.7814006305692</v>
+        <v>253.781400630569</v>
       </c>
       <c r="N22" t="n">
-        <v>329.7617438211973</v>
+        <v>329.7617438211971</v>
       </c>
       <c r="O22" t="n">
-        <v>396.6410115835371</v>
+        <v>396.6410115835369</v>
       </c>
       <c r="P22" t="n">
-        <v>450.7702085953937</v>
+        <v>450.7702085953934</v>
       </c>
       <c r="Q22" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="R22" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="S22" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="T22" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="U22" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="V22" t="n">
-        <v>479.2134449600844</v>
+        <v>479.2134449600841</v>
       </c>
       <c r="W22" t="n">
-        <v>372.3270671569572</v>
+        <v>204.3610411325972</v>
       </c>
       <c r="X22" t="n">
-        <v>372.3270671569572</v>
+        <v>204.3610411325972</v>
       </c>
       <c r="Y22" t="n">
-        <v>372.3270671569572</v>
+        <v>204.3610411325972</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2427.782621182084</v>
+        <v>1209.703304703246</v>
       </c>
       <c r="C23" t="n">
-        <v>2000.881891195384</v>
+        <v>1209.703304703246</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.589270380385</v>
+        <v>1209.703304703246</v>
       </c>
       <c r="E23" t="n">
         <v>1151.612330528242</v>
@@ -5986,22 +5986,22 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1440473010162</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998229</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M23" t="n">
         <v>1196.576905080624</v>
       </c>
       <c r="N23" t="n">
-        <v>1562.984812457615</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O23" t="n">
         <v>1906.806429336002</v>
@@ -6016,25 +6016,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T23" t="n">
-        <v>2458.457769745855</v>
+        <v>2299.442080053588</v>
       </c>
       <c r="U23" t="n">
-        <v>2458.457769745855</v>
+        <v>2041.271667827029</v>
       </c>
       <c r="V23" t="n">
-        <v>2458.457769745855</v>
+        <v>2041.271667827029</v>
       </c>
       <c r="W23" t="n">
-        <v>2458.457769745855</v>
+        <v>2041.271667827029</v>
       </c>
       <c r="X23" t="n">
-        <v>2458.457769745855</v>
+        <v>1629.551668994776</v>
       </c>
       <c r="Y23" t="n">
-        <v>2458.457769745855</v>
+        <v>1629.551668994776</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C24" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D24" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E24" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F24" t="n">
         <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662147</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H24" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145936</v>
+        <v>75.83346633145931</v>
       </c>
       <c r="J24" t="n">
         <v>169.6881981570806</v>
@@ -6077,10 +6077,10 @@
         <v>583.1000388744362</v>
       </c>
       <c r="M24" t="n">
-        <v>866.6631241688301</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N24" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O24" t="n">
         <v>1424.874394922369</v>
@@ -6101,19 +6101,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V24" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W24" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X24" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y24" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.7651405847581</v>
+        <v>553.6086940701543</v>
       </c>
       <c r="C25" t="n">
-        <v>50.20544392206816</v>
+        <v>381.6361309490703</v>
       </c>
       <c r="D25" t="n">
-        <v>50.20544392206816</v>
+        <v>381.6361309490703</v>
       </c>
       <c r="E25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F25" t="n">
-        <v>50.20544392206816</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G25" t="n">
         <v>50.20544392206816</v>
@@ -6180,19 +6180,19 @@
         <v>880.7705985416227</v>
       </c>
       <c r="U25" t="n">
-        <v>600.6425766887949</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="V25" t="n">
-        <v>318.9311092968238</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="W25" t="n">
-        <v>318.9311092968238</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="X25" t="n">
-        <v>318.9311092968238</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="Y25" t="n">
-        <v>318.9311092968238</v>
+        <v>743.77466278222</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>308.6556823112916</v>
+        <v>1026.558228654362</v>
       </c>
       <c r="C26" t="n">
-        <v>50.20544392206816</v>
+        <v>1026.558228654362</v>
       </c>
       <c r="D26" t="n">
-        <v>50.20544392206816</v>
+        <v>1026.558228654362</v>
       </c>
       <c r="E26" t="n">
-        <v>50.20544392206816</v>
+        <v>1026.558228654362</v>
       </c>
       <c r="F26" t="n">
-        <v>50.20544392206816</v>
+        <v>601.4340468437626</v>
       </c>
       <c r="G26" t="n">
-        <v>50.20544392206816</v>
+        <v>199.4011991460717</v>
       </c>
       <c r="H26" t="n">
         <v>50.20544392206816</v>
@@ -6226,22 +6226,22 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J26" t="n">
-        <v>265.860210285308</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080624</v>
       </c>
       <c r="N26" t="n">
-        <v>1562.984812457615</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O26" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P26" t="n">
         <v>2194.643812107885</v>
@@ -6253,25 +6253,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2299.442080053588</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U26" t="n">
-        <v>2299.442080053588</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V26" t="n">
-        <v>1941.952665179837</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W26" t="n">
-        <v>1545.561315480184</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="X26" t="n">
-        <v>1133.841316647931</v>
+        <v>1446.406592945892</v>
       </c>
       <c r="Y26" t="n">
-        <v>728.5040466028216</v>
+        <v>1446.406592945892</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452934</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C27" t="n">
-        <v>486.6718964627981</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D27" t="n">
         <v>382.8319379780831</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510204</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F27" t="n">
         <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662169</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H27" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145931</v>
+        <v>75.83346633145929</v>
       </c>
       <c r="J27" t="n">
         <v>169.6881981570806</v>
@@ -6341,16 +6341,16 @@
         <v>1437.769560272918</v>
       </c>
       <c r="V27" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W27" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120637</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.1048093653561</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.8639590119067</v>
+        <v>599.0591311496516</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206816</v>
+        <v>427.0865680285676</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206816</v>
+        <v>263.7697951553383</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206816</v>
+        <v>263.7697951553383</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206816</v>
+        <v>263.7697951553383</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H28" t="n">
         <v>50.20544392206816</v>
@@ -6423,13 +6423,13 @@
         <v>599.0591311496516</v>
       </c>
       <c r="W28" t="n">
-        <v>324.2067273221647</v>
+        <v>599.0591311496516</v>
       </c>
       <c r="X28" t="n">
-        <v>324.2067273221647</v>
+        <v>599.0591311496516</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.8639590119067</v>
+        <v>599.0591311496516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1827.779289404504</v>
+        <v>2113.880846403755</v>
       </c>
       <c r="C29" t="n">
-        <v>1400.878559417805</v>
+        <v>1686.980116417055</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.878559417805</v>
+        <v>1263.687495602055</v>
       </c>
       <c r="E29" t="n">
-        <v>974.9016195656621</v>
+        <v>837.7105557499127</v>
       </c>
       <c r="F29" t="n">
-        <v>549.7774377550624</v>
+        <v>412.5863739393129</v>
       </c>
       <c r="G29" t="n">
-        <v>147.7445900573714</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H29" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I29" t="n">
-        <v>103.1440473010157</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J29" t="n">
-        <v>265.8602102853074</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998218</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230807</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N29" t="n">
         <v>1562.984812457614</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R29" t="n">
         <v>2510.272196103408</v>
       </c>
       <c r="S29" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.627653696034</v>
+        <v>2113.880846403755</v>
       </c>
       <c r="X29" t="n">
-        <v>2247.627653696034</v>
+        <v>2113.880846403755</v>
       </c>
       <c r="Y29" t="n">
-        <v>2247.627653696034</v>
+        <v>2113.880846403755</v>
       </c>
     </row>
     <row r="30">
@@ -6527,13 +6527,13 @@
         <v>382.8319379780835</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510207</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339249</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662206</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H30" t="n">
         <v>50.20544392206816</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1679.707041483853</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="C31" t="n">
-        <v>1679.707041483853</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="D31" t="n">
-        <v>1679.707041483853</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="E31" t="n">
-        <v>1679.707041483853</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483853</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.00153253975</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136167</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="T31" t="n">
-        <v>2510.272196103408</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="U31" t="n">
-        <v>2230.14417425058</v>
+        <v>361.7233162526833</v>
       </c>
       <c r="V31" t="n">
-        <v>2230.14417425058</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="W31" t="n">
-        <v>1955.291770423093</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="X31" t="n">
-        <v>1712.727873868898</v>
+        <v>80.01184886071223</v>
       </c>
       <c r="Y31" t="n">
-        <v>1679.707041483853</v>
+        <v>80.01184886071223</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1650.346421213949</v>
+        <v>1728.408582273601</v>
       </c>
       <c r="C32" t="n">
-        <v>1223.445691227249</v>
+        <v>1301.507852286901</v>
       </c>
       <c r="D32" t="n">
-        <v>901.3065655848104</v>
+        <v>878.2152314719016</v>
       </c>
       <c r="E32" t="n">
-        <v>475.329625732668</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F32" t="n">
-        <v>50.20544392206816</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G32" t="n">
         <v>50.20544392206816</v>
@@ -6715,7 +6715,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O32" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
         <v>2194.643812107885</v>
@@ -6733,19 +6733,19 @@
         <v>2458.457769745855</v>
       </c>
       <c r="U32" t="n">
-        <v>2458.457769745855</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V32" t="n">
-        <v>2458.457769745855</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W32" t="n">
-        <v>2062.066420046202</v>
+        <v>1728.408582273601</v>
       </c>
       <c r="X32" t="n">
-        <v>1650.346421213949</v>
+        <v>1728.408582273601</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.346421213949</v>
+        <v>1728.408582273601</v>
       </c>
     </row>
     <row r="33">
@@ -6761,25 +6761,25 @@
         <v>486.6718964627985</v>
       </c>
       <c r="D33" t="n">
-        <v>382.8319379780835</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E33" t="n">
-        <v>278.1300042510207</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F33" t="n">
-        <v>184.4841739339249</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G33" t="n">
-        <v>91.66433580662206</v>
+        <v>91.66433580662178</v>
       </c>
       <c r="H33" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145956</v>
       </c>
       <c r="J33" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K33" t="n">
         <v>342.80104282661</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.1883294478752</v>
+        <v>222.1780070431521</v>
       </c>
       <c r="C34" t="n">
         <v>50.20544392206816</v>
@@ -6891,19 +6891,19 @@
         <v>880.7705985416227</v>
       </c>
       <c r="U34" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="V34" t="n">
-        <v>880.7705985416227</v>
+        <v>600.6425766887949</v>
       </c>
       <c r="W34" t="n">
-        <v>605.9181947141358</v>
+        <v>412.3439757552178</v>
       </c>
       <c r="X34" t="n">
-        <v>363.3542981599409</v>
+        <v>412.3439757552178</v>
       </c>
       <c r="Y34" t="n">
-        <v>363.3542981599409</v>
+        <v>412.3439757552178</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>629.3493240685301</v>
+        <v>1803.896007819644</v>
       </c>
       <c r="C35" t="n">
-        <v>473.4980647370679</v>
+        <v>1376.995277832944</v>
       </c>
       <c r="D35" t="n">
-        <v>50.20544392206816</v>
+        <v>1376.995277832944</v>
       </c>
       <c r="E35" t="n">
-        <v>50.20544392206816</v>
+        <v>1151.612330528242</v>
       </c>
       <c r="F35" t="n">
-        <v>50.20544392206816</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G35" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H35" t="n">
         <v>50.20544392206816</v>
@@ -6940,10 +6940,10 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M35" t="n">
         <v>1196.576905080624</v>
@@ -6952,7 +6952,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O35" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P35" t="n">
         <v>2194.643812107885</v>
@@ -6970,19 +6970,19 @@
         <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2200.287357519296</v>
+        <v>2200.287357519297</v>
       </c>
       <c r="V35" t="n">
-        <v>1842.797942645546</v>
+        <v>2200.287357519297</v>
       </c>
       <c r="W35" t="n">
-        <v>1446.406592945892</v>
+        <v>1803.896007819644</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.68659411364</v>
+        <v>1803.896007819644</v>
       </c>
       <c r="Y35" t="n">
-        <v>629.3493240685301</v>
+        <v>1803.896007819644</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C36" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.8319379780835</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510207</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339249</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H36" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83346633145929</v>
+        <v>75.83346633145931</v>
       </c>
       <c r="J36" t="n">
         <v>169.6881981570806</v>
@@ -7049,19 +7049,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U36" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V36" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W36" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X36" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y36" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1679.707041483853</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="C37" t="n">
-        <v>1679.707041483853</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="D37" t="n">
-        <v>1679.707041483853</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="E37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K37" t="n">
-        <v>1828.00153253975</v>
+        <v>198.499934977965</v>
       </c>
       <c r="L37" t="n">
-        <v>1957.041566136167</v>
+        <v>327.5399685743821</v>
       </c>
       <c r="M37" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438376</v>
       </c>
       <c r="N37" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060099</v>
       </c>
       <c r="O37" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064337</v>
       </c>
       <c r="P37" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122618</v>
       </c>
       <c r="Q37" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="R37" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416227</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350635</v>
       </c>
       <c r="T37" t="n">
-        <v>2510.272196103408</v>
+        <v>659.8584444952717</v>
       </c>
       <c r="U37" t="n">
-        <v>2462.613681013569</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="V37" t="n">
-        <v>2180.902213621598</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="W37" t="n">
-        <v>1906.049809794111</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="X37" t="n">
-        <v>1906.049809794111</v>
+        <v>379.7304226424439</v>
       </c>
       <c r="Y37" t="n">
-        <v>1679.707041483853</v>
+        <v>379.7304226424439</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1017.612308308906</v>
+        <v>1288.695212067114</v>
       </c>
       <c r="C38" t="n">
-        <v>1017.612308308906</v>
+        <v>861.7944820804144</v>
       </c>
       <c r="D38" t="n">
-        <v>594.3196874939065</v>
+        <v>438.5018612654146</v>
       </c>
       <c r="E38" t="n">
-        <v>168.342747641764</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="F38" t="n">
-        <v>168.342747641764</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="G38" t="n">
-        <v>168.342747641764</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853076</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998222</v>
+        <v>517.9745679998221</v>
       </c>
       <c r="L38" t="n">
         <v>836.7412585230809</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N38" t="n">
         <v>1562.984812457614</v>
@@ -7192,34 +7192,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P38" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T38" t="n">
-        <v>2458.457769745855</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U38" t="n">
-        <v>2200.287357519297</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="V38" t="n">
-        <v>1842.797942645546</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="W38" t="n">
-        <v>1842.797942645546</v>
+        <v>2113.880846403754</v>
       </c>
       <c r="X38" t="n">
-        <v>1842.797942645546</v>
+        <v>2113.880846403754</v>
       </c>
       <c r="Y38" t="n">
-        <v>1437.460672600436</v>
+        <v>1708.543576358644</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C39" t="n">
-        <v>1179.176727910352</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>1075.336769425637</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E39" t="n">
-        <v>970.6348356985745</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F39" t="n">
-        <v>876.9890053814787</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H39" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I39" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J39" t="n">
-        <v>862.1930296046349</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K39" t="n">
-        <v>1035.305874274164</v>
+        <v>342.80104282661</v>
       </c>
       <c r="L39" t="n">
-        <v>1275.604870321991</v>
+        <v>583.1000388744362</v>
       </c>
       <c r="M39" t="n">
-        <v>1559.167955616385</v>
+        <v>866.6631241688303</v>
       </c>
       <c r="N39" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O39" t="n">
-        <v>2117.379226369924</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P39" t="n">
-        <v>2326.7643203591</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q39" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R39" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S39" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T39" t="n">
-        <v>2314.961407955106</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U39" t="n">
-        <v>2130.274391720471</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V39" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W39" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X39" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.6979649651042</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="C40" t="n">
-        <v>221.6979649651042</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="D40" t="n">
-        <v>221.6979649651042</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="E40" t="n">
-        <v>221.6979649651042</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="F40" t="n">
-        <v>50.20544392206816</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="G40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7362,22 +7362,22 @@
         <v>880.7705985416227</v>
       </c>
       <c r="T40" t="n">
-        <v>880.7705985416227</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416227</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416227</v>
+        <v>360.13987071354</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416227</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="X40" t="n">
-        <v>638.2067019874278</v>
+        <v>85.28746688605304</v>
       </c>
       <c r="Y40" t="n">
-        <v>411.8639336771698</v>
+        <v>85.28746688605304</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1041.069322900783</v>
+        <v>1082.026890290378</v>
       </c>
       <c r="C41" t="n">
-        <v>614.1685929140831</v>
+        <v>655.1261603036783</v>
       </c>
       <c r="D41" t="n">
-        <v>190.8759720990834</v>
+        <v>231.8335394886785</v>
       </c>
       <c r="E41" t="n">
-        <v>50.20544392206816</v>
+        <v>231.8335394886785</v>
       </c>
       <c r="F41" t="n">
         <v>50.20544392206816</v>
@@ -7408,25 +7408,25 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010162</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8602102853079</v>
+        <v>265.860210285308</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230818</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.576905080625</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.984812457615</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P41" t="n">
         <v>2194.643812107885</v>
@@ -7441,22 +7441,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2458.457769745855</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U41" t="n">
-        <v>2200.287357519296</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V41" t="n">
-        <v>1842.797942645546</v>
+        <v>1890.138238822284</v>
       </c>
       <c r="W41" t="n">
-        <v>1446.406592945892</v>
+        <v>1493.746889122631</v>
       </c>
       <c r="X41" t="n">
-        <v>1446.406592945892</v>
+        <v>1082.026890290378</v>
       </c>
       <c r="Y41" t="n">
-        <v>1041.069322900783</v>
+        <v>1082.026890290378</v>
       </c>
     </row>
     <row r="42">
@@ -7475,13 +7475,13 @@
         <v>382.8319379780835</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510207</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339249</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662206</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H42" t="n">
         <v>50.20544392206816</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>318.9311092968238</v>
+        <v>169.9739020014744</v>
       </c>
       <c r="C43" t="n">
-        <v>318.9311092968238</v>
+        <v>169.9739020014744</v>
       </c>
       <c r="D43" t="n">
-        <v>318.9311092968238</v>
+        <v>169.9739020014744</v>
       </c>
       <c r="E43" t="n">
-        <v>318.9311092968238</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F43" t="n">
-        <v>147.0693350713842</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G43" t="n">
         <v>50.20544392206816</v>
@@ -7599,22 +7599,22 @@
         <v>880.7705985416227</v>
       </c>
       <c r="T43" t="n">
-        <v>880.7705985416227</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="U43" t="n">
-        <v>600.6425766887949</v>
+        <v>641.8513381055111</v>
       </c>
       <c r="V43" t="n">
-        <v>318.9311092968238</v>
+        <v>360.13987071354</v>
       </c>
       <c r="W43" t="n">
-        <v>318.9311092968238</v>
+        <v>360.13987071354</v>
       </c>
       <c r="X43" t="n">
-        <v>318.9311092968238</v>
+        <v>360.13987071354</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.9311092968238</v>
+        <v>360.13987071354</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2090.423831811878</v>
+        <v>878.2152314719016</v>
       </c>
       <c r="C44" t="n">
-        <v>1663.523101825178</v>
+        <v>878.2152314719016</v>
       </c>
       <c r="D44" t="n">
-        <v>1240.230481010178</v>
+        <v>878.2152314719016</v>
       </c>
       <c r="E44" t="n">
-        <v>1151.612330528242</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F44" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G44" t="n">
-        <v>324.4553010199517</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H44" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010163</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998224</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080624</v>
@@ -7663,7 +7663,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O44" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P44" t="n">
         <v>2194.643812107885</v>
@@ -7681,19 +7681,19 @@
         <v>2510.272196103408</v>
       </c>
       <c r="U44" t="n">
-        <v>2510.272196103408</v>
+        <v>2449.153264922667</v>
       </c>
       <c r="V44" t="n">
-        <v>2510.272196103408</v>
+        <v>2091.663850048917</v>
       </c>
       <c r="W44" t="n">
-        <v>2510.272196103408</v>
+        <v>1695.272500349264</v>
       </c>
       <c r="X44" t="n">
-        <v>2510.272196103408</v>
+        <v>1283.552501517011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2510.272196103408</v>
+        <v>878.2152314719016</v>
       </c>
     </row>
     <row r="45">
@@ -7760,10 +7760,10 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.769560272918</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.796421412184</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W45" t="n">
         <v>1036.275044245401</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>284.0866020551252</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="C46" t="n">
-        <v>284.0866020551252</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="D46" t="n">
-        <v>284.0866020551252</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="E46" t="n">
-        <v>284.0866020551252</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="F46" t="n">
-        <v>284.0866020551252</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G46" t="n">
-        <v>118.8641208752695</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
         <v>50.20544392206816</v>
@@ -7833,25 +7833,25 @@
         <v>880.7705985416227</v>
       </c>
       <c r="S46" t="n">
-        <v>880.7705985416227</v>
+        <v>796.7408282072222</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416227</v>
+        <v>796.7408282072222</v>
       </c>
       <c r="U46" t="n">
-        <v>880.7705985416227</v>
+        <v>796.7408282072222</v>
       </c>
       <c r="V46" t="n">
-        <v>880.7705985416227</v>
+        <v>796.7408282072222</v>
       </c>
       <c r="W46" t="n">
-        <v>880.7705985416227</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="X46" t="n">
-        <v>700.5953390774488</v>
+        <v>521.8884243797353</v>
       </c>
       <c r="Y46" t="n">
-        <v>474.2525707671908</v>
+        <v>521.8884243797353</v>
       </c>
     </row>
   </sheetData>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.23491829176727</v>
+        <v>4.413415416532743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8413873365495981</v>
+        <v>3.013009563169348</v>
       </c>
       <c r="E2" t="n">
-        <v>3.498863183320918</v>
+        <v>3.498863183320893</v>
       </c>
       <c r="F2" t="n">
-        <v>2.65463272219365</v>
+        <v>2.654632722193625</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.585037643152521</v>
+        <v>12.90330721005587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8413873365495768</v>
+        <v>0.8413873365495661</v>
       </c>
       <c r="E5" t="n">
-        <v>3.498863183320896</v>
+        <v>3.498863183320886</v>
       </c>
       <c r="F5" t="n">
-        <v>2.654632722193629</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>16.21253523482842</v>
       </c>
       <c r="D8" t="n">
-        <v>16.21253523482846</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23266,13 +23266,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7676133353395</v>
+        <v>65.55804782320075</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>64.71381736207348</v>
       </c>
       <c r="G11" t="n">
-        <v>398.8753222361167</v>
+        <v>42.71619960569643</v>
       </c>
       <c r="H11" t="n">
         <v>280.3435399083971</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.95740580746545</v>
+        <v>12.91018294011715</v>
       </c>
       <c r="T11" t="n">
         <v>212.4987350892473</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6577323455255</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>51.44367621350978</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.12477471423813</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>33.31166873766391</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>92.35328005752564</v>
       </c>
       <c r="H12" t="n">
-        <v>45.50277650041806</v>
+        <v>45.50277650041807</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>137.3979883958439</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>33.31166873766435</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>96.87987233061608</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23436,7 +23436,7 @@
         <v>136.6937305982353</v>
       </c>
       <c r="I13" t="n">
-        <v>79.61094925365796</v>
+        <v>79.61094925365798</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.92099918154964</v>
+        <v>17.92099918154965</v>
       </c>
       <c r="S13" t="n">
-        <v>157.3304345571177</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>238.18371467664</v>
@@ -23475,16 +23475,16 @@
         <v>277.3478520195534</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>104.7847245091092</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,16 +23503,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>65.55804782320058</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>64.71381736207331</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.8753222361167</v>
+        <v>42.71619960569649</v>
       </c>
       <c r="H14" t="n">
-        <v>280.3435399083971</v>
+        <v>76.39132759446852</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>70.95740580746545</v>
       </c>
       <c r="T14" t="n">
-        <v>212.4987350892473</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6577323455255</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>36.26831357223614</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.57894213178446</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11.99270694243705</v>
       </c>
       <c r="D15" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>92.35328005752564</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>45.50277650041807</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.39519259663223</v>
+        <v>66.39519259663224</v>
       </c>
       <c r="T15" t="n">
         <v>137.3979883958439</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8705171454119</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>82.69754071265028</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>52.43305237141794</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>158.6079350617022</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9572800977121</v>
       </c>
       <c r="H16" t="n">
         <v>136.6937305982353</v>
       </c>
       <c r="I16" t="n">
-        <v>79.61094925365796</v>
+        <v>79.61094925365798</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.92099918154964</v>
+        <v>17.92099918154965</v>
       </c>
       <c r="S16" t="n">
-        <v>157.3304345571177</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>238.18371467664</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3478520195534</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>59.49075801819453</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>244.6953676079708</v>
+        <v>65.55804782320081</v>
       </c>
       <c r="F17" t="n">
-        <v>64.71381736207331</v>
+        <v>64.71381736207354</v>
       </c>
       <c r="G17" t="n">
-        <v>42.71619960569626</v>
+        <v>398.8753222361167</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>280.3435399083971</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.95740580746545</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>362.1786218864953</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.35328005752564</v>
+        <v>60.41484351267951</v>
       </c>
       <c r="H18" t="n">
-        <v>45.50277650041806</v>
+        <v>45.50277650041807</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>66.39519259663224</v>
       </c>
       <c r="T18" t="n">
-        <v>9.839771590163281</v>
+        <v>137.3979883958439</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.8705171454119</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>141.7179674877176</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.9572800977121</v>
@@ -23910,7 +23910,7 @@
         <v>136.6937305982353</v>
       </c>
       <c r="I19" t="n">
-        <v>79.61094925365796</v>
+        <v>79.61094925365798</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>17.92099918154965</v>
       </c>
       <c r="S19" t="n">
         <v>157.3304345571177</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>238.18371467664</v>
       </c>
       <c r="U19" t="n">
         <v>277.3478520195534</v>
@@ -23958,7 +23958,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>109.8022752633716</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>179.8841732814245</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>62.90057197642949</v>
       </c>
       <c r="E20" t="n">
-        <v>318.2663484245867</v>
+        <v>65.55804782320081</v>
       </c>
       <c r="F20" t="n">
-        <v>64.71381736207331</v>
+        <v>64.71381736207354</v>
       </c>
       <c r="G20" t="n">
-        <v>42.71619960569626</v>
+        <v>398.8753222361167</v>
       </c>
       <c r="H20" t="n">
         <v>280.3435399083971</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.95740580746545</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.4987350892473</v>
       </c>
       <c r="U20" t="n">
         <v>255.6577323455255</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47.31636578453862</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>103.6549143897921</v>
@@ -24065,7 +24065,7 @@
         <v>92.35328005752564</v>
       </c>
       <c r="H21" t="n">
-        <v>45.50277650041806</v>
+        <v>45.50277650041807</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>66.39519259663224</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.3979883958439</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8705171454119</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>11.78276535040106</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24129,16 +24129,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>152.1201007242301</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>163.9572800977121</v>
@@ -24147,7 +24147,7 @@
         <v>136.6937305982353</v>
       </c>
       <c r="I22" t="n">
-        <v>79.61094925365796</v>
+        <v>79.61094925365798</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.92099918154964</v>
+        <v>17.92099918154966</v>
       </c>
       <c r="S22" t="n">
         <v>157.3304345571177</v>
@@ -24189,7 +24189,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>166.2863657641162</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>385.2814835704814</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>364.2071060203675</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24271,7 +24271,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>92.47873779381008</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.2527378018481</v>
@@ -24420,10 +24420,10 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -24432,7 +24432,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>88.45336422534677</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>166.7659866815017</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>123.8035608551411</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397735</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>123.070907550933</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24615,10 +24615,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>85.3942864489678</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>67.97209018366931</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>39.25539850364174</v>
       </c>
       <c r="H29" t="n">
-        <v>174.9436038529544</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
         <v>255.5887081042933</v>
@@ -24742,7 +24742,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24852,7 +24852,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>134.0619154787995</v>
       </c>
       <c r="H31" t="n">
         <v>133.2527378018481</v>
@@ -24891,22 +24891,22 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.3887165659611</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>100.1419602208355</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -24973,16 +24973,16 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>279.1819694344314</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.49978081932416</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25131,16 +25131,16 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>85.68826486497082</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>268.3389759486853</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>198.5880526219668</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25362,25 +25362,25 @@
         <v>0.5190049372437358</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>168.4127017943566</v>
       </c>
       <c r="U37" t="n">
-        <v>230.1448116953593</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>37.30371728370801</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,7 +25408,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
-        <v>154.5514278444057</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397735</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -25560,10 +25560,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0.365560650579539</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>128.8390536337121</v>
       </c>
       <c r="H40" t="n">
         <v>133.2527378018481</v>
@@ -25602,22 +25602,22 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>282.453347558376</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>241.0611253815495</v>
       </c>
       <c r="G41" t="n">
         <v>398.012519220714</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -25794,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>45.97535029006285</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>67.67500413023426</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
         <v>133.2527378018481</v>
@@ -25839,10 +25839,10 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>333.9852014765046</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>195.0809662353605</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0.5190049372437358</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>67.39619383743714</v>
       </c>
       <c r="T46" t="n">
         <v>236.5300678317505</v>
@@ -26085,13 +26085,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>61.76475071912077</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>249745.6621055231</v>
+        <v>249745.662105523</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>249745.6621055231</v>
+        <v>249745.662105523</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>249745.6621055231</v>
+        <v>249745.662105523</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>249745.6621055231</v>
+        <v>249745.6621055229</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400858.8561336771</v>
+        <v>400858.8561336768</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400858.8561336769</v>
+        <v>400858.8561336768</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>400858.856133677</v>
+        <v>400858.8561336769</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>400858.8561336768</v>
+        <v>400858.856133677</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>400858.856133677</v>
+        <v>400858.8561336769</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333159.9420056637</v>
+        <v>333159.9420056639</v>
       </c>
       <c r="C2" t="n">
-        <v>333159.9420056636</v>
+        <v>333159.9420056638</v>
       </c>
       <c r="D2" t="n">
         <v>334162.4863687205</v>
       </c>
       <c r="E2" t="n">
-        <v>122215.9623069581</v>
+        <v>122215.962306958</v>
       </c>
       <c r="F2" t="n">
-        <v>122215.9623069581</v>
+        <v>122215.962306958</v>
       </c>
       <c r="G2" t="n">
-        <v>122215.9623069581</v>
+        <v>122215.962306958</v>
       </c>
       <c r="H2" t="n">
-        <v>122215.9623069581</v>
+        <v>122215.962306958</v>
       </c>
       <c r="I2" t="n">
         <v>196164.9721505227</v>
@@ -26340,22 +26340,22 @@
         <v>196164.9721505228</v>
       </c>
       <c r="K2" t="n">
-        <v>196164.9721505227</v>
+        <v>196164.9721505228</v>
       </c>
       <c r="L2" t="n">
         <v>196164.9721505227</v>
       </c>
       <c r="M2" t="n">
-        <v>196164.9721505228</v>
+        <v>196164.9721505227</v>
       </c>
       <c r="N2" t="n">
         <v>196164.9721505227</v>
       </c>
       <c r="O2" t="n">
-        <v>196164.9721505227</v>
+        <v>196164.9721505228</v>
       </c>
       <c r="P2" t="n">
-        <v>196164.9721505227</v>
+        <v>196164.9721505228</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80658.96448328666</v>
+        <v>80658.96448328669</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>6757.863891381598</v>
       </c>
       <c r="E3" t="n">
-        <v>316215.1793498418</v>
+        <v>316215.1793498417</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>233730.0172425319</v>
+        <v>233730.0172425321</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430397</v>
+        <v>4766.710787430374</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>1428.493034927607</v>
       </c>
       <c r="M3" t="n">
-        <v>82809.64887252533</v>
+        <v>82809.64887252531</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>303020.5832031403</v>
       </c>
       <c r="E4" t="n">
-        <v>250.186750864198</v>
+        <v>250.1867508641979</v>
       </c>
       <c r="F4" t="n">
-        <v>250.186750864198</v>
+        <v>250.1867508641979</v>
       </c>
       <c r="G4" t="n">
-        <v>250.186750864198</v>
+        <v>250.1867508641979</v>
       </c>
       <c r="H4" t="n">
-        <v>250.186750864198</v>
+        <v>250.1867508641978</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539643</v>
@@ -26478,22 +26478,22 @@
         <v>36892.4719640909</v>
       </c>
       <c r="E5" t="n">
-        <v>29356.67517997697</v>
+        <v>29356.67517997696</v>
       </c>
       <c r="F5" t="n">
-        <v>29356.67517997697</v>
+        <v>29356.67517997695</v>
       </c>
       <c r="G5" t="n">
-        <v>29356.67517997697</v>
+        <v>29356.67517997695</v>
       </c>
       <c r="H5" t="n">
-        <v>29356.67517997697</v>
+        <v>29356.67517997695</v>
       </c>
       <c r="I5" t="n">
         <v>50537.10295659398</v>
       </c>
       <c r="J5" t="n">
-        <v>50537.10295659398</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="K5" t="n">
         <v>50537.10295659397</v>
@@ -26502,10 +26502,10 @@
         <v>50537.10295659397</v>
       </c>
       <c r="M5" t="n">
+        <v>50537.10295659398</v>
+      </c>
+      <c r="N5" t="n">
         <v>50537.10295659397</v>
-      </c>
-      <c r="N5" t="n">
-        <v>50537.10295659398</v>
       </c>
       <c r="O5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88084.86543494566</v>
+        <v>-88092.45061799233</v>
       </c>
       <c r="C6" t="n">
-        <v>-7425.90095165906</v>
+        <v>-7433.486134705705</v>
       </c>
       <c r="D6" t="n">
-        <v>-12508.43268989224</v>
+        <v>-12511.65898440398</v>
       </c>
       <c r="E6" t="n">
-        <v>-223606.0789737249</v>
+        <v>-224530.8118945921</v>
       </c>
       <c r="F6" t="n">
-        <v>92609.10037611694</v>
+        <v>91684.36745524962</v>
       </c>
       <c r="G6" t="n">
-        <v>92609.10037611696</v>
+        <v>91684.36745524965</v>
       </c>
       <c r="H6" t="n">
-        <v>92609.1003761169</v>
+        <v>91684.36745524962</v>
       </c>
       <c r="I6" t="n">
-        <v>-88542.60184045715</v>
+        <v>-89145.81732722203</v>
       </c>
       <c r="J6" t="n">
-        <v>140420.7046146445</v>
+        <v>139817.4891278797</v>
       </c>
       <c r="K6" t="n">
-        <v>145187.4154020748</v>
+        <v>144584.1999153101</v>
       </c>
       <c r="L6" t="n">
-        <v>143758.9223671472</v>
+        <v>143155.7068803824</v>
       </c>
       <c r="M6" t="n">
-        <v>62377.76652954952</v>
+        <v>61774.55104278473</v>
       </c>
       <c r="N6" t="n">
-        <v>145187.4154020748</v>
+        <v>144584.19991531</v>
       </c>
       <c r="O6" t="n">
-        <v>145187.4154020748</v>
+        <v>144584.1999153101</v>
       </c>
       <c r="P6" t="n">
-        <v>145187.4154020747</v>
+        <v>144584.1999153101</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975659</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
         <v>77.36880956975664</v>
@@ -26746,16 +26746,16 @@
         <v>83.21249026304839</v>
       </c>
       <c r="E3" t="n">
-        <v>353.3119506443765</v>
+        <v>353.3119506443763</v>
       </c>
       <c r="F3" t="n">
-        <v>353.3119506443765</v>
+        <v>353.3119506443763</v>
       </c>
       <c r="G3" t="n">
-        <v>353.3119506443765</v>
+        <v>353.3119506443763</v>
       </c>
       <c r="H3" t="n">
-        <v>353.3119506443765</v>
+        <v>353.3119506443763</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257878</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691515</v>
+        <v>23.86249467691516</v>
       </c>
       <c r="E4" t="n">
-        <v>356.1591226304204</v>
+        <v>356.1591226304203</v>
       </c>
       <c r="F4" t="n">
-        <v>356.1591226304204</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="G4" t="n">
-        <v>356.1591226304204</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="H4" t="n">
-        <v>356.1591226304204</v>
+        <v>356.1591226304202</v>
       </c>
       <c r="I4" t="n">
         <v>627.568049025852</v>
       </c>
       <c r="J4" t="n">
-        <v>627.568049025852</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="K4" t="n">
         <v>627.5680490258519</v>
@@ -26822,10 +26822,10 @@
         <v>627.5680490258519</v>
       </c>
       <c r="M4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.568049025852</v>
       </c>
       <c r="N4" t="n">
-        <v>627.568049025852</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="O4" t="n">
         <v>627.5680490258519</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975659</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>5.843680693291759</v>
       </c>
       <c r="E3" t="n">
-        <v>270.0994603813281</v>
+        <v>270.099460381328</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>214.6222500814114</v>
+        <v>214.6222500814116</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>5.644187406615039</v>
       </c>
       <c r="E4" t="n">
-        <v>332.2966279535053</v>
+        <v>332.2966279535051</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>271.4089263954316</v>
+        <v>271.4089263954318</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.2183072703</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>5.644187406615039</v>
       </c>
       <c r="M4" t="n">
-        <v>332.2966279535053</v>
+        <v>332.2966279535052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>5.644187406615039</v>
       </c>
       <c r="M4" t="n">
-        <v>332.2966279535053</v>
+        <v>332.2966279535051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,10 +27399,10 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>22.55690342461459</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788014</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.53689155162899</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R2" t="n">
-        <v>15.4948871445001</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
         <v>96.23601616822083</v>
@@ -27463,25 +27463,25 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>84.58325162956773</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>85.43660711949205</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>74.49106474362479</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>92.94681813455406</v>
       </c>
       <c r="H3" t="n">
-        <v>51.2351047706663</v>
+        <v>47.14601099623249</v>
       </c>
       <c r="I3" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.41990205371728</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T3" t="n">
-        <v>139.7903633642173</v>
+        <v>121.5720560939172</v>
       </c>
       <c r="U3" t="n">
         <v>182.9095657031111</v>
@@ -27523,7 +27523,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>147.3000785283944</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27560,25 +27560,25 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J4" t="n">
-        <v>10.77286693432815</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K4" t="n">
-        <v>4.755254677277751</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176308884163525</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1163097641238835</v>
+        <v>0.1163097641238596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.779019446119928</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936629</v>
+        <v>5.506790124936618</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5486455514283</v>
+        <v>123.5486455514282</v>
       </c>
       <c r="C6" t="n">
         <v>116.3308444476703</v>
@@ -27803,7 +27803,7 @@
         <v>4.755254677277744</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163515</v>
+        <v>0.5871850422329222</v>
       </c>
       <c r="M7" t="n">
         <v>0.7054336060544522</v>
@@ -27827,7 +27827,7 @@
         <v>166.0022870397414</v>
       </c>
       <c r="T7" t="n">
-        <v>239.7207101183992</v>
+        <v>240.3098339603297</v>
       </c>
       <c r="U7" t="n">
         <v>277.3749939678559</v>
@@ -27934,25 +27934,25 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>116.3308444476703</v>
+        <v>92.4683497707551</v>
       </c>
       <c r="D9" t="n">
-        <v>78.93906422295267</v>
+        <v>85.48439685803537</v>
       </c>
       <c r="E9" t="n">
-        <v>79.79241971287699</v>
+        <v>79.79241971287698</v>
       </c>
       <c r="F9" t="n">
-        <v>68.84687733700973</v>
+        <v>68.84687733700972</v>
       </c>
       <c r="G9" t="n">
-        <v>85.62703899590085</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H9" t="n">
         <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00995232957613</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>94.25831015433721</v>
       </c>
       <c r="J10" t="n">
-        <v>6.548060948881233</v>
+        <v>10.02784554495552</v>
       </c>
       <c r="K10" t="n">
         <v>3.530955673011043</v>
@@ -28052,7 +28052,7 @@
         <v>1.289551455639586</v>
       </c>
       <c r="P10" t="n">
-        <v>4.232292945534102</v>
+        <v>0.7525083494598146</v>
       </c>
       <c r="Q10" t="n">
         <v>12.05447673506464</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.311030390230177</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H2" t="n">
-        <v>3.185339983944801</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I2" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J2" t="n">
-        <v>26.39831558279851</v>
+        <v>26.39831558279852</v>
       </c>
       <c r="K2" t="n">
-        <v>39.56423200124191</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L2" t="n">
-        <v>49.0829283062487</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850461</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N2" t="n">
-        <v>55.4979301047461</v>
+        <v>55.49793010474614</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40512166189478</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P2" t="n">
-        <v>44.72655890308728</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.58778305296905</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R2" t="n">
-        <v>19.53776275029637</v>
+        <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370166</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H3" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I3" t="n">
-        <v>5.729671274741409</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J3" t="n">
-        <v>15.72265591454837</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K3" t="n">
-        <v>26.87252322575216</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L3" t="n">
-        <v>27.31232273831892</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31508778262807</v>
+        <v>41.3150877826281</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384176</v>
+        <v>39.56133548384178</v>
       </c>
       <c r="O3" t="n">
-        <v>39.59458313896779</v>
+        <v>30.77348212492065</v>
       </c>
       <c r="P3" t="n">
-        <v>31.77814368913267</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R3" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811913</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H4" t="n">
-        <v>1.240437635397082</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733686</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J4" t="n">
-        <v>9.86388904957372</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L4" t="n">
-        <v>20.7424510115377</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M4" t="n">
-        <v>21.87000628543136</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N4" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O4" t="n">
-        <v>19.72016805230452</v>
+        <v>19.72016805230453</v>
       </c>
       <c r="P4" t="n">
-        <v>16.87401053304986</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.68269024503324</v>
+        <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852721</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S4" t="n">
-        <v>2.431409966315136</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292718</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926886</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31375,16 +31375,16 @@
         <v>36.13342375236606</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31508778262809</v>
+        <v>41.3150877826281</v>
       </c>
       <c r="N6" t="n">
-        <v>30.74023446979461</v>
+        <v>39.56133548384179</v>
       </c>
       <c r="O6" t="n">
         <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
-        <v>31.77814368913269</v>
+        <v>22.95704267508556</v>
       </c>
       <c r="Q6" t="n">
         <v>21.24284748790752</v>
@@ -31612,10 +31612,10 @@
         <v>38.86258802332275</v>
       </c>
       <c r="M9" t="n">
-        <v>39.04885458410057</v>
+        <v>45.35080719336137</v>
       </c>
       <c r="N9" t="n">
-        <v>45.20552289045682</v>
+        <v>38.80328482851644</v>
       </c>
       <c r="O9" t="n">
         <v>42.58516942735459</v>
@@ -31624,7 +31624,7 @@
         <v>34.17835284030756</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165812</v>
       </c>
       <c r="R9" t="n">
         <v>11.1127925675822</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.420349550329151</v>
+        <v>1.42034955032915</v>
       </c>
       <c r="H11" t="n">
-        <v>14.54615483230842</v>
+        <v>14.54615483230841</v>
       </c>
       <c r="I11" t="n">
-        <v>54.75802603906462</v>
+        <v>54.75802603906461</v>
       </c>
       <c r="J11" t="n">
         <v>120.5503926472488</v>
@@ -31767,31 +31767,31 @@
         <v>180.6737891126818</v>
       </c>
       <c r="L11" t="n">
-        <v>224.1418116635676</v>
+        <v>224.1418116635675</v>
       </c>
       <c r="M11" t="n">
         <v>249.4009529792336</v>
       </c>
       <c r="N11" t="n">
-        <v>253.4365211391064</v>
+        <v>253.4365211391063</v>
       </c>
       <c r="O11" t="n">
         <v>239.3129202980208</v>
       </c>
       <c r="P11" t="n">
-        <v>204.2480407742699</v>
+        <v>204.2480407742698</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.3817725031072</v>
+        <v>153.3817725031071</v>
       </c>
       <c r="R11" t="n">
-        <v>89.22103244086358</v>
+        <v>89.22103244086355</v>
       </c>
       <c r="S11" t="n">
-        <v>32.36621537812555</v>
+        <v>32.36621537812554</v>
       </c>
       <c r="T11" t="n">
-        <v>6.21758015656586</v>
+        <v>6.217580156565857</v>
       </c>
       <c r="U11" t="n">
         <v>0.113627964026332</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7599540070463947</v>
+        <v>0.7599540070463944</v>
       </c>
       <c r="H12" t="n">
-        <v>7.339555804895444</v>
+        <v>7.339555804895442</v>
       </c>
       <c r="I12" t="n">
-        <v>26.16508313734298</v>
+        <v>26.16508313734297</v>
       </c>
       <c r="J12" t="n">
-        <v>71.79898800783505</v>
+        <v>71.79898800783502</v>
       </c>
       <c r="K12" t="n">
-        <v>122.7159064799435</v>
+        <v>122.7159064799434</v>
       </c>
       <c r="L12" t="n">
-        <v>165.0066803457534</v>
+        <v>165.0066803457533</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5550131011852</v>
+        <v>192.5550131011851</v>
       </c>
       <c r="N12" t="n">
-        <v>197.6513713326498</v>
+        <v>197.6513713326497</v>
       </c>
       <c r="O12" t="n">
         <v>180.8123904396744</v>
       </c>
       <c r="P12" t="n">
-        <v>145.1178840297629</v>
+        <v>145.1178840297628</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.00746237315032</v>
+        <v>97.00746237315029</v>
       </c>
       <c r="R12" t="n">
-        <v>47.18381106907354</v>
+        <v>47.18381106907352</v>
       </c>
       <c r="S12" t="n">
-        <v>14.11581236772579</v>
+        <v>14.11581236772578</v>
       </c>
       <c r="T12" t="n">
-        <v>3.063147949454546</v>
+        <v>3.063147949454545</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04999697414778914</v>
+        <v>0.04999697414778913</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6371199109980559</v>
+        <v>0.6371199109980556</v>
       </c>
       <c r="H13" t="n">
-        <v>5.66457520869181</v>
+        <v>5.664575208691808</v>
       </c>
       <c r="I13" t="n">
         <v>19.15993332346881</v>
       </c>
       <c r="J13" t="n">
-        <v>45.04437770756255</v>
+        <v>45.04437770756253</v>
       </c>
       <c r="K13" t="n">
-        <v>74.02174965959229</v>
+        <v>74.02174965959226</v>
       </c>
       <c r="L13" t="n">
-        <v>94.72235476783824</v>
+        <v>94.72235476783821</v>
       </c>
       <c r="M13" t="n">
-        <v>99.87144204854069</v>
+        <v>99.87144204854066</v>
       </c>
       <c r="N13" t="n">
-        <v>97.49672238027529</v>
+        <v>97.49672238027526</v>
       </c>
       <c r="O13" t="n">
-        <v>90.05400341997978</v>
+        <v>90.05400341997975</v>
       </c>
       <c r="P13" t="n">
-        <v>77.05675723561937</v>
+        <v>77.05675723561936</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.35010454730084</v>
+        <v>53.35010454730082</v>
       </c>
       <c r="R13" t="n">
-        <v>28.64722799814894</v>
+        <v>28.64722799814893</v>
       </c>
       <c r="S13" t="n">
         <v>11.10326244893884</v>
       </c>
       <c r="T13" t="n">
-        <v>2.722239619718965</v>
+        <v>2.722239619718964</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03475199514534854</v>
+        <v>0.03475199514534853</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.420349550329151</v>
+        <v>1.42034955032915</v>
       </c>
       <c r="H14" t="n">
-        <v>14.54615483230842</v>
+        <v>14.54615483230841</v>
       </c>
       <c r="I14" t="n">
-        <v>54.75802603906464</v>
+        <v>54.75802603906461</v>
       </c>
       <c r="J14" t="n">
-        <v>120.5503926472489</v>
+        <v>120.5503926472488</v>
       </c>
       <c r="K14" t="n">
         <v>180.6737891126818</v>
       </c>
       <c r="L14" t="n">
-        <v>224.1418116635676</v>
+        <v>224.1418116635675</v>
       </c>
       <c r="M14" t="n">
-        <v>249.4009529792337</v>
+        <v>249.4009529792336</v>
       </c>
       <c r="N14" t="n">
-        <v>253.4365211391064</v>
+        <v>253.4365211391063</v>
       </c>
       <c r="O14" t="n">
-        <v>239.3129202980209</v>
+        <v>239.3129202980208</v>
       </c>
       <c r="P14" t="n">
-        <v>204.24804077427</v>
+        <v>204.2480407742698</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.3817725031072</v>
+        <v>153.3817725031071</v>
       </c>
       <c r="R14" t="n">
-        <v>89.2210324408636</v>
+        <v>89.22103244086355</v>
       </c>
       <c r="S14" t="n">
-        <v>32.36621537812555</v>
+        <v>32.36621537812554</v>
       </c>
       <c r="T14" t="n">
-        <v>6.217580156565861</v>
+        <v>6.217580156565857</v>
       </c>
       <c r="U14" t="n">
         <v>0.113627964026332</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7599540070463948</v>
+        <v>0.7599540070463944</v>
       </c>
       <c r="H15" t="n">
-        <v>7.339555804895445</v>
+        <v>7.339555804895442</v>
       </c>
       <c r="I15" t="n">
-        <v>26.16508313734298</v>
+        <v>26.16508313734297</v>
       </c>
       <c r="J15" t="n">
-        <v>71.79898800783505</v>
+        <v>71.79898800783502</v>
       </c>
       <c r="K15" t="n">
-        <v>122.7159064799435</v>
+        <v>122.7159064799434</v>
       </c>
       <c r="L15" t="n">
-        <v>165.0066803457534</v>
+        <v>165.0066803457533</v>
       </c>
       <c r="M15" t="n">
-        <v>192.5550131011852</v>
+        <v>192.5550131011851</v>
       </c>
       <c r="N15" t="n">
-        <v>197.6513713326499</v>
+        <v>197.6513713326497</v>
       </c>
       <c r="O15" t="n">
-        <v>180.8123904396745</v>
+        <v>180.8123904396744</v>
       </c>
       <c r="P15" t="n">
-        <v>145.1178840297629</v>
+        <v>145.1178840297628</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.00746237315033</v>
+        <v>97.00746237315029</v>
       </c>
       <c r="R15" t="n">
-        <v>47.18381106907355</v>
+        <v>47.18381106907352</v>
       </c>
       <c r="S15" t="n">
-        <v>14.11581236772579</v>
+        <v>14.11581236772578</v>
       </c>
       <c r="T15" t="n">
-        <v>3.063147949454546</v>
+        <v>3.063147949454545</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04999697414778915</v>
+        <v>0.04999697414778913</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6371199109980559</v>
+        <v>0.6371199109980556</v>
       </c>
       <c r="H16" t="n">
-        <v>5.664575208691811</v>
+        <v>5.664575208691808</v>
       </c>
       <c r="I16" t="n">
-        <v>19.15993332346882</v>
+        <v>19.15993332346881</v>
       </c>
       <c r="J16" t="n">
-        <v>45.04437770756255</v>
+        <v>45.04437770756253</v>
       </c>
       <c r="K16" t="n">
-        <v>74.0217496595923</v>
+        <v>74.02174965959226</v>
       </c>
       <c r="L16" t="n">
-        <v>94.72235476783825</v>
+        <v>94.72235476783821</v>
       </c>
       <c r="M16" t="n">
-        <v>99.8714420485407</v>
+        <v>99.87144204854066</v>
       </c>
       <c r="N16" t="n">
-        <v>97.4967223802753</v>
+        <v>97.49672238027526</v>
       </c>
       <c r="O16" t="n">
-        <v>90.05400341997979</v>
+        <v>90.05400341997975</v>
       </c>
       <c r="P16" t="n">
-        <v>77.05675723561939</v>
+        <v>77.05675723561936</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.35010454730085</v>
+        <v>53.35010454730082</v>
       </c>
       <c r="R16" t="n">
-        <v>28.64722799814895</v>
+        <v>28.64722799814893</v>
       </c>
       <c r="S16" t="n">
         <v>11.10326244893884</v>
       </c>
       <c r="T16" t="n">
-        <v>2.722239619718966</v>
+        <v>2.722239619718964</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03475199514534855</v>
+        <v>0.03475199514534853</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.420349550329151</v>
+        <v>1.42034955032915</v>
       </c>
       <c r="H17" t="n">
-        <v>14.54615483230842</v>
+        <v>14.54615483230841</v>
       </c>
       <c r="I17" t="n">
-        <v>54.75802603906462</v>
+        <v>54.75802603906461</v>
       </c>
       <c r="J17" t="n">
         <v>120.5503926472488</v>
@@ -32241,31 +32241,31 @@
         <v>180.6737891126818</v>
       </c>
       <c r="L17" t="n">
-        <v>224.1418116635676</v>
+        <v>224.1418116635675</v>
       </c>
       <c r="M17" t="n">
         <v>249.4009529792336</v>
       </c>
       <c r="N17" t="n">
-        <v>253.4365211391064</v>
+        <v>253.4365211391063</v>
       </c>
       <c r="O17" t="n">
         <v>239.3129202980208</v>
       </c>
       <c r="P17" t="n">
-        <v>204.2480407742699</v>
+        <v>204.2480407742698</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.3817725031072</v>
+        <v>153.3817725031071</v>
       </c>
       <c r="R17" t="n">
-        <v>89.22103244086358</v>
+        <v>89.22103244086355</v>
       </c>
       <c r="S17" t="n">
-        <v>32.36621537812555</v>
+        <v>32.36621537812554</v>
       </c>
       <c r="T17" t="n">
-        <v>6.21758015656586</v>
+        <v>6.217580156565857</v>
       </c>
       <c r="U17" t="n">
         <v>0.113627964026332</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7599540070463947</v>
+        <v>0.7599540070463944</v>
       </c>
       <c r="H18" t="n">
-        <v>7.339555804895444</v>
+        <v>7.339555804895442</v>
       </c>
       <c r="I18" t="n">
-        <v>26.16508313734298</v>
+        <v>26.16508313734297</v>
       </c>
       <c r="J18" t="n">
-        <v>71.79898800783505</v>
+        <v>71.79898800783502</v>
       </c>
       <c r="K18" t="n">
-        <v>122.7159064799435</v>
+        <v>122.7159064799434</v>
       </c>
       <c r="L18" t="n">
-        <v>165.0066803457534</v>
+        <v>165.0066803457533</v>
       </c>
       <c r="M18" t="n">
-        <v>192.5550131011852</v>
+        <v>192.5550131011851</v>
       </c>
       <c r="N18" t="n">
-        <v>197.6513713326498</v>
+        <v>197.6513713326497</v>
       </c>
       <c r="O18" t="n">
         <v>180.8123904396744</v>
       </c>
       <c r="P18" t="n">
-        <v>145.1178840297629</v>
+        <v>145.1178840297628</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.00746237315032</v>
+        <v>97.00746237315029</v>
       </c>
       <c r="R18" t="n">
-        <v>47.18381106907354</v>
+        <v>47.18381106907352</v>
       </c>
       <c r="S18" t="n">
-        <v>14.11581236772579</v>
+        <v>14.11581236772578</v>
       </c>
       <c r="T18" t="n">
-        <v>3.063147949454546</v>
+        <v>3.063147949454545</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04999697414778914</v>
+        <v>0.04999697414778913</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6371199109980559</v>
+        <v>0.6371199109980556</v>
       </c>
       <c r="H19" t="n">
-        <v>5.66457520869181</v>
+        <v>5.664575208691808</v>
       </c>
       <c r="I19" t="n">
         <v>19.15993332346881</v>
       </c>
       <c r="J19" t="n">
-        <v>45.04437770756255</v>
+        <v>45.04437770756253</v>
       </c>
       <c r="K19" t="n">
-        <v>74.02174965959229</v>
+        <v>74.02174965959226</v>
       </c>
       <c r="L19" t="n">
-        <v>94.72235476783824</v>
+        <v>94.72235476783821</v>
       </c>
       <c r="M19" t="n">
-        <v>99.87144204854069</v>
+        <v>99.87144204854066</v>
       </c>
       <c r="N19" t="n">
-        <v>97.49672238027529</v>
+        <v>97.49672238027526</v>
       </c>
       <c r="O19" t="n">
-        <v>90.05400341997978</v>
+        <v>90.05400341997975</v>
       </c>
       <c r="P19" t="n">
-        <v>77.05675723561937</v>
+        <v>77.05675723561936</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.35010454730084</v>
+        <v>53.35010454730082</v>
       </c>
       <c r="R19" t="n">
-        <v>28.64722799814894</v>
+        <v>28.64722799814893</v>
       </c>
       <c r="S19" t="n">
         <v>11.10326244893884</v>
       </c>
       <c r="T19" t="n">
-        <v>2.722239619718965</v>
+        <v>2.722239619718964</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03475199514534854</v>
+        <v>0.03475199514534853</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.420349550329151</v>
+        <v>1.42034955032915</v>
       </c>
       <c r="H20" t="n">
-        <v>14.54615483230842</v>
+        <v>14.54615483230841</v>
       </c>
       <c r="I20" t="n">
-        <v>54.75802603906462</v>
+        <v>54.7580260390646</v>
       </c>
       <c r="J20" t="n">
         <v>120.5503926472488</v>
       </c>
       <c r="K20" t="n">
-        <v>180.6737891126818</v>
+        <v>180.6737891126817</v>
       </c>
       <c r="L20" t="n">
-        <v>224.1418116635676</v>
+        <v>224.1418116635675</v>
       </c>
       <c r="M20" t="n">
-        <v>249.4009529792336</v>
+        <v>249.4009529792335</v>
       </c>
       <c r="N20" t="n">
-        <v>253.4365211391064</v>
+        <v>253.4365211391062</v>
       </c>
       <c r="O20" t="n">
-        <v>239.3129202980208</v>
+        <v>239.3129202980207</v>
       </c>
       <c r="P20" t="n">
-        <v>204.2480407742699</v>
+        <v>204.2480407742698</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.3817725031072</v>
+        <v>153.3817725031071</v>
       </c>
       <c r="R20" t="n">
-        <v>89.22103244086358</v>
+        <v>89.22103244086354</v>
       </c>
       <c r="S20" t="n">
-        <v>32.36621537812555</v>
+        <v>32.36621537812553</v>
       </c>
       <c r="T20" t="n">
-        <v>6.21758015656586</v>
+        <v>6.217580156565856</v>
       </c>
       <c r="U20" t="n">
         <v>0.113627964026332</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7599540070463947</v>
+        <v>0.7599540070463943</v>
       </c>
       <c r="H21" t="n">
-        <v>7.339555804895444</v>
+        <v>7.339555804895441</v>
       </c>
       <c r="I21" t="n">
-        <v>26.16508313734298</v>
+        <v>26.16508313734296</v>
       </c>
       <c r="J21" t="n">
-        <v>71.79898800783505</v>
+        <v>71.79898800783501</v>
       </c>
       <c r="K21" t="n">
-        <v>122.7159064799435</v>
+        <v>122.7159064799434</v>
       </c>
       <c r="L21" t="n">
-        <v>165.0066803457534</v>
+        <v>165.0066803457533</v>
       </c>
       <c r="M21" t="n">
-        <v>192.5550131011852</v>
+        <v>192.555013101185</v>
       </c>
       <c r="N21" t="n">
-        <v>197.6513713326498</v>
+        <v>197.6513713326497</v>
       </c>
       <c r="O21" t="n">
-        <v>180.8123904396744</v>
+        <v>180.8123904396743</v>
       </c>
       <c r="P21" t="n">
-        <v>145.1178840297629</v>
+        <v>145.1178840297628</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.00746237315032</v>
+        <v>97.00746237315028</v>
       </c>
       <c r="R21" t="n">
-        <v>47.18381106907354</v>
+        <v>47.18381106907351</v>
       </c>
       <c r="S21" t="n">
-        <v>14.11581236772579</v>
+        <v>14.11581236772578</v>
       </c>
       <c r="T21" t="n">
-        <v>3.063147949454546</v>
+        <v>3.063147949454544</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04999697414778914</v>
+        <v>0.04999697414778912</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6371199109980559</v>
+        <v>0.6371199109980555</v>
       </c>
       <c r="H22" t="n">
-        <v>5.66457520869181</v>
+        <v>5.664575208691807</v>
       </c>
       <c r="I22" t="n">
-        <v>19.15993332346881</v>
+        <v>19.1599333234688</v>
       </c>
       <c r="J22" t="n">
-        <v>45.04437770756255</v>
+        <v>45.04437770756252</v>
       </c>
       <c r="K22" t="n">
-        <v>74.02174965959229</v>
+        <v>74.02174965959225</v>
       </c>
       <c r="L22" t="n">
-        <v>94.72235476783824</v>
+        <v>94.7223547678382</v>
       </c>
       <c r="M22" t="n">
-        <v>99.87144204854069</v>
+        <v>99.87144204854063</v>
       </c>
       <c r="N22" t="n">
-        <v>97.49672238027529</v>
+        <v>97.49672238027523</v>
       </c>
       <c r="O22" t="n">
-        <v>90.05400341997978</v>
+        <v>90.05400341997974</v>
       </c>
       <c r="P22" t="n">
-        <v>77.05675723561937</v>
+        <v>77.05675723561934</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.35010454730084</v>
+        <v>53.35010454730082</v>
       </c>
       <c r="R22" t="n">
-        <v>28.64722799814894</v>
+        <v>28.64722799814892</v>
       </c>
       <c r="S22" t="n">
         <v>11.10326244893884</v>
       </c>
       <c r="T22" t="n">
-        <v>2.722239619718965</v>
+        <v>2.722239619718964</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03475199514534854</v>
+        <v>0.03475199514534853</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>407.3886201849413</v>
       </c>
       <c r="O41" t="n">
-        <v>384.6855218594456</v>
+        <v>384.6855218594455</v>
       </c>
       <c r="P41" t="n">
         <v>328.3201928929415</v>
@@ -34365,7 +34365,7 @@
         <v>23.38233621380089</v>
       </c>
       <c r="I44" t="n">
-        <v>88.02123929037552</v>
+        <v>88.02123929037563</v>
       </c>
       <c r="J44" t="n">
         <v>193.7797200757803</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432572</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L2" t="n">
-        <v>10.77088587362578</v>
+        <v>10.77088587362581</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907279</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O2" t="n">
-        <v>15.01416230587068</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P2" t="n">
-        <v>7.15119709285598</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.47328939241882</v>
+        <v>4.473289392418835</v>
       </c>
       <c r="L3" t="n">
-        <v>4.79723602408936</v>
+        <v>13.61833703813651</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O3" t="n">
-        <v>16.42269341674557</v>
+        <v>7.601592402698431</v>
       </c>
       <c r="P3" t="n">
-        <v>10.00730248430401</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309748</v>
+        <v>0.601085442230989</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>17.18295210907283</v>
       </c>
       <c r="N5" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O5" t="n">
         <v>15.01416230587071</v>
@@ -35023,16 +35023,16 @@
         <v>13.61833703813651</v>
       </c>
       <c r="M6" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="N6" t="n">
-        <v>9.397206256252952</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O6" t="n">
         <v>16.42269341674559</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00730248430402</v>
+        <v>1.186201470256901</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>16.34750130909319</v>
       </c>
       <c r="M9" t="n">
-        <v>15.95207407177259</v>
+        <v>22.25402668103339</v>
       </c>
       <c r="N9" t="n">
-        <v>23.86249467691515</v>
+        <v>17.46025661497477</v>
       </c>
       <c r="O9" t="n">
         <v>19.41327970513236</v>
@@ -35272,7 +35272,7 @@
         <v>12.4075116354789</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.1002854526796213</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.21012349510112</v>
+        <v>20.21012349510111</v>
       </c>
       <c r="J11" t="n">
-        <v>91.13043316166232</v>
+        <v>91.1304331616623</v>
       </c>
       <c r="K11" t="n">
-        <v>144.9091883178725</v>
+        <v>144.9091883178724</v>
       </c>
       <c r="L11" t="n">
-        <v>185.8297692309447</v>
+        <v>185.8297692309446</v>
       </c>
       <c r="M11" t="n">
         <v>211.9696900798018</v>
       </c>
       <c r="N11" t="n">
-        <v>216.1568983046603</v>
+        <v>216.1568983046602</v>
       </c>
       <c r="O11" t="n">
         <v>201.9219609419967</v>
       </c>
       <c r="P11" t="n">
-        <v>166.6726789640386</v>
+        <v>166.6726789640385</v>
       </c>
       <c r="Q11" t="n">
         <v>117.2570978985091</v>
       </c>
       <c r="R11" t="n">
-        <v>54.18838254606711</v>
+        <v>54.18838254606708</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.992696387342978</v>
+        <v>9.992696387342967</v>
       </c>
       <c r="J12" t="n">
-        <v>51.18787367450172</v>
+        <v>51.18787367450169</v>
       </c>
       <c r="K12" t="n">
         <v>100.3166726466101</v>
@@ -35497,22 +35497,22 @@
         <v>142.4915936315238</v>
       </c>
       <c r="M12" t="n">
-        <v>169.4582325888572</v>
+        <v>169.4582325888571</v>
       </c>
       <c r="N12" t="n">
         <v>176.3083431191081</v>
       </c>
       <c r="O12" t="n">
-        <v>157.6405007174522</v>
+        <v>157.6405007174521</v>
       </c>
       <c r="P12" t="n">
         <v>123.3470428249342</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.26042408417182</v>
+        <v>74.26042408417179</v>
       </c>
       <c r="R12" t="n">
-        <v>23.5108916749294</v>
+        <v>23.51089167492938</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.40762172366068</v>
+        <v>24.40762172366066</v>
       </c>
       <c r="K13" t="n">
-        <v>53.05709520688029</v>
+        <v>53.05709520688026</v>
       </c>
       <c r="L13" t="n">
-        <v>72.80359487213701</v>
+        <v>72.80359487213698</v>
       </c>
       <c r="M13" t="n">
-        <v>77.29600215705487</v>
+        <v>77.29600215705484</v>
       </c>
       <c r="N13" t="n">
-        <v>76.74782140467489</v>
+        <v>76.74782140467487</v>
       </c>
       <c r="O13" t="n">
-        <v>67.55481592155533</v>
+        <v>67.5548159215553</v>
       </c>
       <c r="P13" t="n">
-        <v>54.67595657763289</v>
+        <v>54.67595657763287</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.7305417825159</v>
+        <v>28.73054178251587</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.21012349510114</v>
+        <v>20.21012349510111</v>
       </c>
       <c r="J14" t="n">
-        <v>91.13043316166235</v>
+        <v>91.1304331616623</v>
       </c>
       <c r="K14" t="n">
-        <v>144.9091883178725</v>
+        <v>144.9091883178724</v>
       </c>
       <c r="L14" t="n">
-        <v>185.8297692309447</v>
+        <v>185.8297692309446</v>
       </c>
       <c r="M14" t="n">
-        <v>211.9696900798019</v>
+        <v>211.9696900798018</v>
       </c>
       <c r="N14" t="n">
-        <v>216.1568983046604</v>
+        <v>216.1568983046602</v>
       </c>
       <c r="O14" t="n">
-        <v>201.9219609419968</v>
+        <v>201.9219609419967</v>
       </c>
       <c r="P14" t="n">
-        <v>166.6726789640387</v>
+        <v>166.6726789640385</v>
       </c>
       <c r="Q14" t="n">
         <v>117.2570978985091</v>
       </c>
       <c r="R14" t="n">
-        <v>54.18838254606712</v>
+        <v>54.18838254606708</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.992696387342981</v>
+        <v>9.992696387342967</v>
       </c>
       <c r="J15" t="n">
-        <v>51.18787367450172</v>
+        <v>51.18787367450169</v>
       </c>
       <c r="K15" t="n">
-        <v>100.3166726466102</v>
+        <v>100.3166726466101</v>
       </c>
       <c r="L15" t="n">
         <v>142.4915936315238</v>
       </c>
       <c r="M15" t="n">
-        <v>169.4582325888572</v>
+        <v>169.4582325888571</v>
       </c>
       <c r="N15" t="n">
-        <v>176.3083431191082</v>
+        <v>176.3083431191081</v>
       </c>
       <c r="O15" t="n">
-        <v>157.6405007174522</v>
+        <v>157.6405007174521</v>
       </c>
       <c r="P15" t="n">
         <v>123.3470428249342</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.26042408417183</v>
+        <v>74.26042408417179</v>
       </c>
       <c r="R15" t="n">
-        <v>23.5108916749294</v>
+        <v>23.51089167492938</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.40762172366069</v>
+        <v>24.40762172366066</v>
       </c>
       <c r="K16" t="n">
-        <v>53.05709520688031</v>
+        <v>53.05709520688026</v>
       </c>
       <c r="L16" t="n">
-        <v>72.80359487213704</v>
+        <v>72.80359487213698</v>
       </c>
       <c r="M16" t="n">
-        <v>77.29600215705489</v>
+        <v>77.29600215705484</v>
       </c>
       <c r="N16" t="n">
-        <v>76.74782140467491</v>
+        <v>76.74782140467487</v>
       </c>
       <c r="O16" t="n">
-        <v>67.55481592155535</v>
+        <v>67.5548159215553</v>
       </c>
       <c r="P16" t="n">
-        <v>54.6759565776329</v>
+        <v>54.67595657763287</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.7305417825159</v>
+        <v>28.73054178251587</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20.21012349510112</v>
+        <v>20.21012349510111</v>
       </c>
       <c r="J17" t="n">
-        <v>91.13043316166232</v>
+        <v>91.1304331616623</v>
       </c>
       <c r="K17" t="n">
-        <v>144.9091883178725</v>
+        <v>144.9091883178724</v>
       </c>
       <c r="L17" t="n">
-        <v>185.8297692309447</v>
+        <v>185.8297692309446</v>
       </c>
       <c r="M17" t="n">
         <v>211.9696900798018</v>
       </c>
       <c r="N17" t="n">
-        <v>216.1568983046603</v>
+        <v>216.1568983046602</v>
       </c>
       <c r="O17" t="n">
         <v>201.9219609419967</v>
       </c>
       <c r="P17" t="n">
-        <v>166.6726789640386</v>
+        <v>166.6726789640385</v>
       </c>
       <c r="Q17" t="n">
         <v>117.2570978985091</v>
       </c>
       <c r="R17" t="n">
-        <v>54.18838254606711</v>
+        <v>54.18838254606708</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.992696387342978</v>
+        <v>9.992696387342967</v>
       </c>
       <c r="J18" t="n">
-        <v>51.18787367450172</v>
+        <v>51.18787367450169</v>
       </c>
       <c r="K18" t="n">
         <v>100.3166726466101</v>
@@ -35971,22 +35971,22 @@
         <v>142.4915936315238</v>
       </c>
       <c r="M18" t="n">
-        <v>169.4582325888572</v>
+        <v>169.4582325888571</v>
       </c>
       <c r="N18" t="n">
         <v>176.3083431191081</v>
       </c>
       <c r="O18" t="n">
-        <v>157.6405007174522</v>
+        <v>157.6405007174521</v>
       </c>
       <c r="P18" t="n">
         <v>123.3470428249342</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.26042408417182</v>
+        <v>74.26042408417179</v>
       </c>
       <c r="R18" t="n">
-        <v>23.5108916749294</v>
+        <v>23.51089167492938</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.40762172366068</v>
+        <v>24.40762172366066</v>
       </c>
       <c r="K19" t="n">
-        <v>53.05709520688029</v>
+        <v>53.05709520688026</v>
       </c>
       <c r="L19" t="n">
-        <v>72.80359487213701</v>
+        <v>72.80359487213698</v>
       </c>
       <c r="M19" t="n">
-        <v>77.29600215705487</v>
+        <v>77.29600215705484</v>
       </c>
       <c r="N19" t="n">
-        <v>76.74782140467489</v>
+        <v>76.74782140467487</v>
       </c>
       <c r="O19" t="n">
-        <v>67.55481592155533</v>
+        <v>67.5548159215553</v>
       </c>
       <c r="P19" t="n">
-        <v>54.67595657763289</v>
+        <v>54.67595657763287</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.7305417825159</v>
+        <v>28.73054178251587</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>20.21012349510112</v>
+        <v>20.2101234951011</v>
       </c>
       <c r="J20" t="n">
-        <v>91.13043316166232</v>
+        <v>91.13043316166227</v>
       </c>
       <c r="K20" t="n">
-        <v>144.9091883178725</v>
+        <v>144.9091883178724</v>
       </c>
       <c r="L20" t="n">
-        <v>185.8297692309447</v>
+        <v>185.8297692309446</v>
       </c>
       <c r="M20" t="n">
-        <v>211.9696900798018</v>
+        <v>211.9696900798017</v>
       </c>
       <c r="N20" t="n">
-        <v>216.1568983046603</v>
+        <v>216.1568983046602</v>
       </c>
       <c r="O20" t="n">
-        <v>201.9219609419967</v>
+        <v>201.9219609419966</v>
       </c>
       <c r="P20" t="n">
-        <v>166.6726789640386</v>
+        <v>166.6726789640385</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.2570978985091</v>
+        <v>117.257097898509</v>
       </c>
       <c r="R20" t="n">
-        <v>54.18838254606711</v>
+        <v>54.18838254606707</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.992696387342978</v>
+        <v>9.992696387342964</v>
       </c>
       <c r="J21" t="n">
-        <v>51.18787367450172</v>
+        <v>51.18787367450167</v>
       </c>
       <c r="K21" t="n">
         <v>100.3166726466101</v>
       </c>
       <c r="L21" t="n">
-        <v>142.4915936315238</v>
+        <v>142.4915936315237</v>
       </c>
       <c r="M21" t="n">
-        <v>169.4582325888572</v>
+        <v>169.4582325888571</v>
       </c>
       <c r="N21" t="n">
         <v>176.3083431191081</v>
       </c>
       <c r="O21" t="n">
-        <v>157.6405007174522</v>
+        <v>157.6405007174521</v>
       </c>
       <c r="P21" t="n">
-        <v>123.3470428249342</v>
+        <v>123.3470428249341</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.26042408417182</v>
+        <v>74.26042408417177</v>
       </c>
       <c r="R21" t="n">
-        <v>23.5108916749294</v>
+        <v>23.51089167492937</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.40762172366068</v>
+        <v>24.40762172366066</v>
       </c>
       <c r="K22" t="n">
-        <v>53.05709520688029</v>
+        <v>53.05709520688025</v>
       </c>
       <c r="L22" t="n">
-        <v>72.80359487213701</v>
+        <v>72.80359487213698</v>
       </c>
       <c r="M22" t="n">
-        <v>77.29600215705487</v>
+        <v>77.29600215705482</v>
       </c>
       <c r="N22" t="n">
-        <v>76.74782140467489</v>
+        <v>76.74782140467484</v>
       </c>
       <c r="O22" t="n">
-        <v>67.55481592155533</v>
+        <v>67.55481592155529</v>
       </c>
       <c r="P22" t="n">
-        <v>54.67595657763289</v>
+        <v>54.67595657763286</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.7305417825159</v>
+        <v>28.73054178251587</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>370.1089973504953</v>
       </c>
       <c r="O41" t="n">
-        <v>347.2945625034215</v>
+        <v>347.2945625034214</v>
       </c>
       <c r="P41" t="n">
         <v>290.7448310827102</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>53.47333674641202</v>
+        <v>53.47333674641213</v>
       </c>
       <c r="J44" t="n">
         <v>164.3597605901937</v>
